--- a/tests/test1/d30/ЛМ, 0.5.xlsx
+++ b/tests/test1/d30/ЛМ, 0.5.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.005694300000001817</v>
+        <v>0.002615300000002208</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002667799999997555</v>
+        <v>0.002471900000003302</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002815800000000479</v>
+        <v>0.001988400000001889</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004631899999999689</v>
+        <v>0.002434600000000842</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.003815100000004179</v>
+        <v>0.002313999999998373</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002403000000001043</v>
+        <v>0.003585199999996291</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.00356580000000406</v>
+        <v>0.00209920000000352</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.00286400000000242</v>
+        <v>0.001903399999996225</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.003544099999999162</v>
+        <v>0.002761900000002981</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001837299999998265</v>
+        <v>0.001891700000001606</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003002399999999739</v>
+        <v>0.003659700000000043</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002168499999996243</v>
+        <v>0.003871199999998964</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002043199999995693</v>
+        <v>0.002099099999995246</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002365699999998583</v>
+        <v>0.003394399999997688</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002564100000000735</v>
+        <v>0.002434199999996167</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.00244570000000266</v>
+        <v>0.002069099999999935</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001826499999999953</v>
+        <v>0.001734400000003689</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.004111200000004089</v>
+        <v>0.005338600000001748</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002609100000000808</v>
+        <v>0.002553499999997655</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001878699999998901</v>
+        <v>0.004935199999998474</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002896100000000956</v>
+        <v>0.002649599999998031</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001886700000000019</v>
+        <v>0.00380609999999848</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002943299999998317</v>
+        <v>0.001773399999997594</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002904700000001981</v>
+        <v>0.002669799999999611</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.004146900000002063</v>
+        <v>0.002062399999999798</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002414800000003936</v>
+        <v>0.002199400000002072</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002432699999999954</v>
+        <v>0.002238699999999483</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.004829799999995998</v>
+        <v>0.002420100000001923</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004294500000000312</v>
+        <v>0.003817200000000298</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.003794700000000262</v>
+        <v>0.001950799999995922</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002149099999996906</v>
+        <v>0.002005500000002769</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002644800000005887</v>
+        <v>0.002476199999996709</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.006247799999997028</v>
+        <v>0.002003300000005481</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001903200000000993</v>
+        <v>0.001831299999999203</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001880200000002219</v>
+        <v>0.001764999999998906</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002106999999995196</v>
+        <v>0.002867899999998258</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002334199999999953</v>
+        <v>0.002229200000002152</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002152999999999849</v>
+        <v>0.002004100000000619</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002574100000003909</v>
+        <v>0.002436000000002991</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.003650500000006218</v>
+        <v>0.002463499999997509</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002099099999995246</v>
+        <v>0.00292419999999538</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002033400000001961</v>
+        <v>0.002491800000001376</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002593300000000909</v>
+        <v>0.003973700000003078</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001821500000005472</v>
+        <v>0.00176580000000115</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002552999999998917</v>
+        <v>0.00197629999999549</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001825900000000047</v>
+        <v>0.001816999999995517</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002362699999999052</v>
+        <v>0.002246099999993589</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001856499999995265</v>
+        <v>0.003687899999995636</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001831799999997941</v>
+        <v>0.001754100000006531</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002817200000002629</v>
+        <v>0.001977799999998808</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001841800000001115</v>
+        <v>0.001799000000005435</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002056700000004241</v>
+        <v>0.001958299999998303</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002474999999996896</v>
+        <v>0.002549000000001911</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002479800000003252</v>
+        <v>0.002237699999994902</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002253199999998401</v>
+        <v>0.001970499999998765</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.00215329999999625</v>
+        <v>0.001776699999993525</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.003434400000003279</v>
+        <v>0.001743999999995083</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002263599999999144</v>
+        <v>0.001795100000002492</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00240150000000483</v>
+        <v>0.00220329999999791</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.005009000000001151</v>
+        <v>0.003523299999997676</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002111200000001645</v>
+        <v>0.001998300000003894</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.004287999999995407</v>
+        <v>0.002090799999997728</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001821200000001966</v>
+        <v>0.001771800000000212</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002318799999997623</v>
+        <v>0.002207099999999684</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.00235190000000074</v>
+        <v>0.003812099999997542</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001867600000004188</v>
+        <v>0.001843900000004339</v>
       </c>
       <c r="Y67" t="n">
         <v>7</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002109600000004264</v>
+        <v>0.004670799999999531</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002607500000003427</v>
+        <v>0.004133500000001789</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.003503299999998433</v>
+        <v>0.003195099999999229</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.00236250000000382</v>
+        <v>0.005000799999997696</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002912599999994825</v>
+        <v>0.002293699999995624</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002452100000006396</v>
+        <v>0.004523100000000113</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001865600000002132</v>
+        <v>0.002995599999998433</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.003847999999997853</v>
+        <v>0.004552199999999118</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002326699999997572</v>
+        <v>0.004715500000003203</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002255099999999288</v>
+        <v>0.002982799999998065</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002561000000000035</v>
+        <v>0.004355400000001453</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002607400000002258</v>
+        <v>0.005406100000001857</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002070500000002085</v>
+        <v>0.002025500000002012</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002505300000002819</v>
+        <v>0.005550800000001743</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002591800000004696</v>
+        <v>0.003386200000001338</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002063399999997273</v>
+        <v>0.004341300000000103</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002347199999995553</v>
+        <v>0.004539999999998656</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002321500000000754</v>
+        <v>0.004024399999998707</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002343400000000884</v>
+        <v>0.003124100000000851</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002548400000002005</v>
+        <v>0.004837800000004222</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.00211699999999837</v>
+        <v>0.003162600000003124</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002902999999996325</v>
+        <v>0.003620100000006232</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002600200000003383</v>
+        <v>0.004526900000001888</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001915400000001455</v>
+        <v>0.002396499999996138</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002110899999998139</v>
+        <v>0.002013799999993182</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.00283969999999556</v>
+        <v>0.002542200000000605</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002602199999998334</v>
+        <v>0.007711999999997943</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002598599999998896</v>
+        <v>0.007942700000000968</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002668400000004567</v>
+        <v>0.004497200000002977</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002244000000004576</v>
+        <v>0.01124490000000122</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002510200000003238</v>
+        <v>0.004725800000002778</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002850699999996209</v>
+        <v>0.005767399999996314</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002560500000001298</v>
+        <v>0.007075299999996787</v>
       </c>
       <c r="Y100" t="n">
         <v>7</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002413799999999355</v>
+        <v>0.004160300000002337</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 0.5.xlsx
+++ b/tests/test1/d30/ЛМ, 0.5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002615300000002208</v>
+        <v>0.004214899999993804</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002471900000003302</v>
+        <v>0.00269220000001269</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.001988400000001889</v>
+        <v>0.00217320000000143</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002434600000000842</v>
+        <v>0.002760500000007937</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002313999999998373</v>
+        <v>0.002195099999994454</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003585199999996291</v>
+        <v>0.002460399999989704</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.00209920000000352</v>
+        <v>0.002817199999995523</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001903399999996225</v>
+        <v>0.002136600000000044</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002761900000002981</v>
+        <v>0.002972800000009101</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001891700000001606</v>
+        <v>0.003708900000006565</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003659700000000043</v>
+        <v>0.002246299999995927</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.003871199999998964</v>
+        <v>0.002238099999999577</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002099099999995246</v>
+        <v>0.002282600000000912</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.003394399999997688</v>
+        <v>0.002426700000000892</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002434199999996167</v>
+        <v>0.002781100000007086</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002069099999999935</v>
+        <v>0.002167100000008304</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001734400000003689</v>
+        <v>0.001992500000000064</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.005338600000001748</v>
+        <v>0.002494999999996139</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002553499999997655</v>
+        <v>0.004404100000002131</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.004935199999998474</v>
+        <v>0.001976600000006101</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002649599999998031</v>
+        <v>0.00456820000000846</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.00380609999999848</v>
+        <v>0.002001000000007025</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001773399999997594</v>
+        <v>0.001912200000006692</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002669799999999611</v>
+        <v>0.003002499999993802</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002062399999999798</v>
+        <v>0.002248000000008687</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002199400000002072</v>
+        <v>0.003781200000005924</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002238699999999483</v>
+        <v>0.002539900000002149</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002420100000001923</v>
+        <v>0.002793699999998012</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.003817200000000298</v>
+        <v>0.005214000000009378</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.001950799999995922</v>
+        <v>0.002235900000002289</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002005500000002769</v>
+        <v>0.003800499999996987</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002476199999996709</v>
+        <v>0.002828100000002109</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002003300000005481</v>
+        <v>0.002278500000002737</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001831299999999203</v>
+        <v>0.001948699999999803</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001764999999998906</v>
+        <v>0.001973000000006664</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002867899999998258</v>
+        <v>0.002170899999995868</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002229200000002152</v>
+        <v>0.00519090000000233</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002004100000000619</v>
+        <v>0.002178099999994743</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002436000000002991</v>
+        <v>0.005054100000009498</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002463499999997509</v>
+        <v>0.002720300000007114</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.00292419999999538</v>
+        <v>0.004191099999999892</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002491800000001376</v>
+        <v>0.002166599999995356</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003973700000003078</v>
+        <v>0.00267019999999718</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.00176580000000115</v>
+        <v>0.002004499999998188</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.00197629999999549</v>
+        <v>0.002235599999991678</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001816999999995517</v>
+        <v>0.001958299999998303</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002246099999993589</v>
+        <v>0.002414899999990894</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.003687899999995636</v>
+        <v>0.003688900000000217</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001754100000006531</v>
+        <v>0.001972999999992453</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001977799999998808</v>
+        <v>0.002184200000002079</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001799000000005435</v>
+        <v>0.002012800000002812</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.001958299999998303</v>
+        <v>0.002164600000000405</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002549000000001911</v>
+        <v>0.002234099999995465</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002237699999994902</v>
+        <v>0.002426299999996218</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.001970499999998765</v>
+        <v>0.002961999999996578</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001776699999993525</v>
+        <v>0.001901500000002443</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001743999999995083</v>
+        <v>0.001948799999993867</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001795100000002492</v>
+        <v>0.00195310000000859</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00220329999999791</v>
+        <v>0.002432800000008228</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.003523299999997676</v>
+        <v>0.002223199999988879</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.001998300000003894</v>
+        <v>0.002167600000007042</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002090799999997728</v>
+        <v>0.002509099999997488</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001771800000000212</v>
+        <v>0.001897299999995994</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002207099999999684</v>
+        <v>0.003918899999987957</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.003812099999997542</v>
+        <v>0.002440999999990368</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001843900000004339</v>
+        <v>0.001948499999997466</v>
       </c>
       <c r="Y67" t="n">
         <v>7</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.004670799999999531</v>
+        <v>0.0022526000000056</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004133500000001789</v>
+        <v>0.002724299999997015</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.003195099999999229</v>
+        <v>0.002313299999997298</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.005000799999997696</v>
+        <v>0.002419500000002017</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002293699999995624</v>
+        <v>0.00437100000000612</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.004523100000000113</v>
+        <v>0.00216020000000583</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002995599999998433</v>
+        <v>0.002402299999999968</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.004552199999999118</v>
+        <v>0.002733300000002714</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.004715500000003203</v>
+        <v>0.002420399999991218</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002982799999998065</v>
+        <v>0.00224410000001285</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.004355400000001453</v>
+        <v>0.002749899999997751</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.005406100000001857</v>
+        <v>0.00246479999999849</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002025500000002012</v>
+        <v>0.002185800000006566</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.005550800000001743</v>
+        <v>0.003582399999999097</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.003386200000001338</v>
+        <v>0.002699300000003291</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.004341300000000103</v>
+        <v>0.003868599999989897</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.004539999999998656</v>
+        <v>0.002454499999998916</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.004024399999998707</v>
+        <v>0.002452800000000366</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.003124100000000851</v>
+        <v>0.001953600000007327</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.004837800000004222</v>
+        <v>0.002699399999997354</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003162600000003124</v>
+        <v>0.002246900000002938</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.003620100000006232</v>
+        <v>0.002932900000004679</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004526900000001888</v>
+        <v>0.002720899999999915</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002396499999996138</v>
+        <v>0.002219999999994116</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002013799999993182</v>
+        <v>0.003551500000000374</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002542200000000605</v>
+        <v>0.002179400000002829</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.007711999999997943</v>
+        <v>0.004458099999993692</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.007942700000000968</v>
+        <v>0.002692199999998479</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.004497200000002977</v>
+        <v>0.004413900000002968</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.01124490000000122</v>
+        <v>0.002165800000000218</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.004725800000002778</v>
+        <v>0.002544100000008598</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.005767399999996314</v>
+        <v>0.003026699999992388</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.007075299999996787</v>
+        <v>0.002492900000007126</v>
       </c>
       <c r="Y100" t="n">
         <v>7</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.004160300000002337</v>
+        <v>0.002617599999993558</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 0.5.xlsx
+++ b/tests/test1/d30/ЛМ, 0.5.xlsx
@@ -582,13 +582,13 @@
         <v>359.8844205263804</v>
       </c>
       <c r="F2" t="n">
-        <v>30.58511786837268</v>
+        <v>30.58511786837267</v>
       </c>
       <c r="G2" t="n">
-        <v>97.53411321436562</v>
+        <v>97.53411321436566</v>
       </c>
       <c r="H2" t="n">
-        <v>12.06150367917741</v>
+        <v>12.0615036791774</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>30.66394312096636</v>
       </c>
       <c r="P2" t="n">
-        <v>30.30893464854303</v>
+        <v>30.30893464854302</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03966706071354164</v>
+        <v>0.0396670607135358</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7815590447697208</v>
+        <v>0.7815590447693496</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4768556338625952</v>
+        <v>0.4768556338623764</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2215179852555446</v>
+        <v>0.2215179852555391</v>
       </c>
       <c r="U2" t="n">
-        <v>0.249657966271505</v>
+        <v>0.2496579662715049</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2201914834539634</v>
+        <v>0.2201914834539598</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004214899999993804</v>
+        <v>0.002158700000002511</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,10 +664,10 @@
         <v>0.009086019211859194</v>
       </c>
       <c r="F3" t="n">
-        <v>29.12169404570824</v>
+        <v>29.12169404570823</v>
       </c>
       <c r="G3" t="n">
-        <v>75.39676917492889</v>
+        <v>75.39676917492888</v>
       </c>
       <c r="H3" t="n">
         <v>11.11192698143014</v>
@@ -694,22 +694,22 @@
         <v>25.23794477665556</v>
       </c>
       <c r="P3" t="n">
-        <v>33.01906975056179</v>
+        <v>33.01906975056178</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03758137995888217</v>
+        <v>0.03758137995887902</v>
       </c>
       <c r="R3" t="n">
-        <v>0.708440360063903</v>
+        <v>0.7084403600637925</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4235367047047427</v>
+        <v>0.423536704704664</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3406708321868841</v>
+        <v>0.3406708321868462</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2485103598699849</v>
+        <v>0.248510359869985</v>
       </c>
       <c r="V3" t="n">
         <v>0.2087480845196293</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.00269220000001269</v>
+        <v>0.002141599999994526</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>30.57720979856193</v>
       </c>
       <c r="G4" t="n">
-        <v>93.72327985360178</v>
+        <v>93.72327985360168</v>
       </c>
       <c r="H4" t="n">
-        <v>3.189046223053581</v>
+        <v>3.189046223053582</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>10.27380509273773</v>
       </c>
       <c r="P4" t="n">
-        <v>28.16388161743874</v>
+        <v>28.16388161743875</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03527399746793015</v>
+        <v>0.03527399746792864</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5701829692567002</v>
+        <v>0.5701829692567071</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1809602552633199</v>
+        <v>0.1809602552633098</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6934591707227601</v>
+        <v>0.6934591707227183</v>
       </c>
       <c r="U4" t="n">
         <v>0.2637228671211893</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5218023705715286</v>
+        <v>0.5218023705715253</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.00217320000000143</v>
+        <v>0.001590600000000109</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -834,7 +834,7 @@
         <v>101.2156880283485</v>
       </c>
       <c r="H5" t="n">
-        <v>10.86041412383372</v>
+        <v>10.86041412383373</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -855,28 +855,28 @@
         <v>29.21316117156715</v>
       </c>
       <c r="O5" t="n">
-        <v>30.36579536791459</v>
+        <v>30.3657953679146</v>
       </c>
       <c r="P5" t="n">
-        <v>27.71966191042503</v>
+        <v>27.71966191042505</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.035956451845102</v>
+        <v>0.03595645184510365</v>
       </c>
       <c r="R5" t="n">
-        <v>0.683360045085547</v>
+        <v>0.6833600450856953</v>
       </c>
       <c r="S5" t="n">
-        <v>0.410746007602439</v>
+        <v>0.4107460076025258</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2069762683969648</v>
+        <v>0.206976268396964</v>
       </c>
       <c r="U5" t="n">
         <v>0.2610655384952336</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2896100609946889</v>
+        <v>0.2896100609946869</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002760500000007937</v>
+        <v>0.001956900000003259</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>174.7540513533387</v>
       </c>
       <c r="H6" t="n">
-        <v>10.00352812929117</v>
+        <v>10.00352812929118</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>15.69663217635375</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02881449937539048</v>
+        <v>0.02881449937539079</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4002818904791297</v>
+        <v>0.400281890479138</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09593251640132659</v>
+        <v>0.09593251640132648</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5700672127251744</v>
+        <v>0.5700672127251828</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2352078589667224</v>
+        <v>0.2352078589667225</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1982943875146591</v>
+        <v>0.1982943875146606</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002195099999994454</v>
+        <v>0.001769099999997081</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -995,7 +995,7 @@
         <v>30.67234559419157</v>
       </c>
       <c r="G7" t="n">
-        <v>39.60200807883404</v>
+        <v>39.60200807883405</v>
       </c>
       <c r="H7" t="n">
         <v>14.20469583508758</v>
@@ -1022,25 +1022,25 @@
         <v>16.23488780986454</v>
       </c>
       <c r="P7" t="n">
-        <v>42.90016342701221</v>
+        <v>42.9001634270122</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04112773367849574</v>
+        <v>0.04112773367849729</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8190483489760316</v>
+        <v>0.8190483489760456</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4055707846707972</v>
+        <v>0.4055707846708198</v>
       </c>
       <c r="T7" t="n">
-        <v>0.726508710398957</v>
+        <v>0.7265087103990008</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2398032598323641</v>
+        <v>0.2398032598323638</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2235906799277298</v>
+        <v>0.2235906799277279</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002460399999989704</v>
+        <v>0.001803900000005854</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1071,16 +1071,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02553441843201622</v>
+        <v>0.0255344184320035</v>
       </c>
       <c r="F8" t="n">
-        <v>29.73496573740271</v>
+        <v>29.7349657374027</v>
       </c>
       <c r="G8" t="n">
         <v>163.068959188211</v>
       </c>
       <c r="H8" t="n">
-        <v>7.377415293610072</v>
+        <v>7.37741529361007</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>19.02504882518665</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03162834491092338</v>
+        <v>0.03162834491092233</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4185975783586943</v>
+        <v>0.4185975783586966</v>
       </c>
       <c r="S8" t="n">
-        <v>0.135842571647546</v>
+        <v>0.135842571647542</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4875304709138997</v>
+        <v>0.487530470913876</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2321491174782487</v>
+        <v>0.2321491174782486</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2776848990976145</v>
+        <v>0.2776848990976135</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002817199999995523</v>
+        <v>0.001609500000000708</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1159,10 +1159,10 @@
         <v>28.77484376697415</v>
       </c>
       <c r="G9" t="n">
-        <v>13.50858902801425</v>
+        <v>13.50858902801424</v>
       </c>
       <c r="H9" t="n">
-        <v>11.25743686069059</v>
+        <v>11.2574368606906</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1189,22 +1189,22 @@
         <v>39.53424393076807</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03503292762457379</v>
+        <v>0.03503292762457316</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7668470148330252</v>
+        <v>0.7668470148330321</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1752173310066804</v>
+        <v>0.1752173310066774</v>
       </c>
       <c r="T9" t="n">
-        <v>1.21236190671933</v>
+        <v>1.2123619067193</v>
       </c>
       <c r="U9" t="n">
         <v>0.2371747169228386</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3487676166734535</v>
+        <v>0.348767616673453</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002136600000000044</v>
+        <v>0.001924199999997711</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1238,7 +1238,7 @@
         <v>359.9635472522387</v>
       </c>
       <c r="F10" t="n">
-        <v>30.62429370461585</v>
+        <v>30.62429370461586</v>
       </c>
       <c r="G10" t="n">
         <v>156.6116593381455</v>
@@ -1265,28 +1265,28 @@
         <v>13.7482000025743</v>
       </c>
       <c r="O10" t="n">
-        <v>35.41272118713571</v>
+        <v>35.4127211871357</v>
       </c>
       <c r="P10" t="n">
-        <v>14.23290955834475</v>
+        <v>14.23290955834476</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03591578456674625</v>
+        <v>0.03591578456674772</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6399852370500638</v>
+        <v>0.6399852370500887</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2744391866117121</v>
+        <v>0.2744391866117278</v>
       </c>
       <c r="T10" t="n">
-        <v>0.226127484628777</v>
+        <v>0.2261274846287763</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2736824408963301</v>
+        <v>0.2736824408963299</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1225251712440108</v>
+        <v>0.1225251712440129</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002972800000009101</v>
+        <v>0.002210600000005059</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1326,7 +1326,7 @@
         <v>2.115781293094175</v>
       </c>
       <c r="H11" t="n">
-        <v>8.324341076657825</v>
+        <v>8.324341076657827</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>38.09456117805575</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03045932023867712</v>
+        <v>0.03045932023867722</v>
       </c>
       <c r="R11" t="n">
-        <v>1.285455870520779</v>
+        <v>1.285455870520791</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1002346321366535</v>
+        <v>0.1002346321366541</v>
       </c>
       <c r="T11" t="n">
-        <v>2.027835799579281</v>
+        <v>2.027835799579299</v>
       </c>
       <c r="U11" t="n">
         <v>0.2617541295836212</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2100787142158913</v>
+        <v>0.2100787142158908</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.003708900000006565</v>
+        <v>0.001466199999995865</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1408,7 +1408,7 @@
         <v>139.2977948565231</v>
       </c>
       <c r="H12" t="n">
-        <v>3.326702534756334</v>
+        <v>3.326702534756337</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1432,25 +1432,25 @@
         <v>8.730979942752063</v>
       </c>
       <c r="P12" t="n">
-        <v>24.72427193282478</v>
+        <v>24.72427193282477</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03277049604824401</v>
+        <v>0.03277049604824309</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5193121611834272</v>
+        <v>0.5193121611834239</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1423152530057516</v>
+        <v>0.1423152530057477</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7084026324196232</v>
+        <v>0.7084026324195989</v>
       </c>
       <c r="U12" t="n">
         <v>0.2223989396798485</v>
       </c>
       <c r="V12" t="n">
-        <v>0.08213225277044993</v>
+        <v>0.08213225277045316</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002246299999995927</v>
+        <v>0.001767600000000868</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1481,16 +1481,16 @@
         <v>3.233702897851495</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0260181220785849</v>
+        <v>0.02601812207859763</v>
       </c>
       <c r="F13" t="n">
         <v>28.80366427649304</v>
       </c>
       <c r="G13" t="n">
-        <v>30.82986673332288</v>
+        <v>30.82986673332294</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0110568865751</v>
+        <v>3.011056886575094</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1514,25 +1514,25 @@
         <v>5.916401066832734</v>
       </c>
       <c r="P13" t="n">
-        <v>29.44683946799753</v>
+        <v>29.44683946799752</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0314506427175311</v>
+        <v>0.03145064271753226</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6436278125304111</v>
+        <v>0.643627812530416</v>
       </c>
       <c r="S13" t="n">
-        <v>0.126030688253209</v>
+        <v>0.1260306882532145</v>
       </c>
       <c r="T13" t="n">
-        <v>1.006642852007022</v>
+        <v>1.006642852007074</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2407432863700395</v>
+        <v>0.2407432863700396</v>
       </c>
       <c r="V13" t="n">
-        <v>0.32222167454758</v>
+        <v>0.322221674547584</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002238099999999577</v>
+        <v>0.001788600000004692</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1569,7 +1569,7 @@
         <v>31.03932441850404</v>
       </c>
       <c r="G14" t="n">
-        <v>27.35169380207494</v>
+        <v>27.35169380207493</v>
       </c>
       <c r="H14" t="n">
         <v>12.81908233681136</v>
@@ -1596,25 +1596,25 @@
         <v>11.10695124358531</v>
       </c>
       <c r="P14" t="n">
-        <v>42.88943968015505</v>
+        <v>42.88943968015503</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.04019061087537781</v>
+        <v>0.04019061087537695</v>
       </c>
       <c r="R14" t="n">
-        <v>0.7991398911011361</v>
+        <v>0.7991398911011447</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2990081139964741</v>
+        <v>0.2990081139964704</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9437674996983335</v>
+        <v>0.9437674996983048</v>
       </c>
       <c r="U14" t="n">
-        <v>0.251742290999287</v>
+        <v>0.2517422909992868</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3100036537219149</v>
+        <v>0.3100036537219151</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002282600000000912</v>
+        <v>0.001652999999997462</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1681,19 +1681,19 @@
         <v>22.99454977086793</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03458149534675279</v>
+        <v>0.03458149534675346</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5053819562656974</v>
+        <v>0.5053819562657305</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1918026947099353</v>
+        <v>0.1918026947099517</v>
       </c>
       <c r="T15" t="n">
         <v>0.4365043032206731</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2193087410756706</v>
+        <v>0.2193087410756705</v>
       </c>
       <c r="V15" t="n">
         <v>0.05952116986522493</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002426700000000892</v>
+        <v>0.001805699999998467</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1727,16 +1727,16 @@
         <v>12.27798062495156</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09224887599975964</v>
+        <v>0.09224887599977237</v>
       </c>
       <c r="F16" t="n">
-        <v>29.76912607536372</v>
+        <v>29.7691260753637</v>
       </c>
       <c r="G16" t="n">
-        <v>92.09320435431366</v>
+        <v>92.09320435431371</v>
       </c>
       <c r="H16" t="n">
-        <v>12.16288108381271</v>
+        <v>12.16288108381269</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1760,25 +1760,25 @@
         <v>30.69765488346752</v>
       </c>
       <c r="P16" t="n">
-        <v>30.95761595184794</v>
+        <v>30.9576159518479</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03758009365616521</v>
+        <v>0.03758009365616688</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7571290120327508</v>
+        <v>0.7571290120328421</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4783737365036783</v>
+        <v>0.4783737365037398</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2321916369233278</v>
+        <v>0.2321916369233341</v>
       </c>
       <c r="U16" t="n">
         <v>0.2596812702304296</v>
       </c>
       <c r="V16" t="n">
-        <v>0.04771138787263711</v>
+        <v>0.04771138787264158</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002781100000007086</v>
+        <v>0.002175999999998623</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1815,10 +1815,10 @@
         <v>29.87572361097568</v>
       </c>
       <c r="G17" t="n">
-        <v>153.4778413542225</v>
+        <v>153.4778413542224</v>
       </c>
       <c r="H17" t="n">
-        <v>5.174869994183135</v>
+        <v>5.174869994183132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1845,22 +1845,22 @@
         <v>22.06087975764666</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03246765410429613</v>
+        <v>0.03246765410429546</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4662663808539007</v>
+        <v>0.466266380853905</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1437476552833351</v>
+        <v>0.1437476552833312</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5793060904417664</v>
+        <v>0.5793060904417531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2504039731442213</v>
+        <v>0.2504039731442215</v>
       </c>
       <c r="V17" t="n">
-        <v>0.04722691236658863</v>
+        <v>0.04722691236658538</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002167100000008304</v>
+        <v>0.00162339999999972</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>28.74395020634218</v>
       </c>
       <c r="G18" t="n">
-        <v>41.10342424777408</v>
+        <v>41.10342424777406</v>
       </c>
       <c r="H18" t="n">
-        <v>8.413977947936157</v>
+        <v>8.413977947936164</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>13.04840150514197</v>
       </c>
       <c r="P18" t="n">
-        <v>34.62990308946786</v>
+        <v>34.62990308946787</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03612483894375824</v>
+        <v>0.03612483894375796</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6210147876236846</v>
+        <v>0.6210147876236766</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2542520495577267</v>
+        <v>0.2542520495577213</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6603556744129709</v>
+        <v>0.6603556744129611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.2132327472115045</v>
+        <v>0.2132327472115044</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3703599221948557</v>
+        <v>0.3703599221948524</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001992500000000064</v>
+        <v>0.001442400000001953</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -1979,10 +1979,10 @@
         <v>29.80187605167904</v>
       </c>
       <c r="G19" t="n">
-        <v>50.59872778601193</v>
+        <v>50.59872778601194</v>
       </c>
       <c r="H19" t="n">
-        <v>9.89217053216553</v>
+        <v>9.892170532165526</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2003,28 +2003,28 @@
         <v>35.61949574546529</v>
       </c>
       <c r="O19" t="n">
-        <v>16.51826196665187</v>
+        <v>16.51826196665186</v>
       </c>
       <c r="P19" t="n">
-        <v>36.21493685306161</v>
+        <v>36.21493685306159</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03859948979254533</v>
+        <v>0.0385994897925467</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6983096085236385</v>
+        <v>0.6983096085236277</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3312745697933853</v>
+        <v>0.3312745697933902</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5774627034302142</v>
+        <v>0.5774627034302361</v>
       </c>
       <c r="U19" t="n">
-        <v>0.2576011909613569</v>
+        <v>0.2576011909613571</v>
       </c>
       <c r="V19" t="n">
-        <v>0.2394394696919013</v>
+        <v>0.2394394696919068</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002494999999996139</v>
+        <v>0.002246199999994758</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2064,7 +2064,7 @@
         <v>113.7985978517395</v>
       </c>
       <c r="H20" t="n">
-        <v>9.496437583037263</v>
+        <v>9.496437583037267</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2091,22 +2091,22 @@
         <v>26.30386983206204</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03891416534472505</v>
+        <v>0.0389141653447239</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6919644366551967</v>
+        <v>0.691964436655106</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3547686596221871</v>
+        <v>0.3547686596221454</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2424450457764466</v>
+        <v>0.2424450457764512</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2552664171312808</v>
+        <v>0.2552664171312807</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3220368970363782</v>
+        <v>0.3220368970363778</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.004404100000002131</v>
+        <v>0.002009700000002113</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2140,13 +2140,13 @@
         <v>0.008614461957771505</v>
       </c>
       <c r="F21" t="n">
-        <v>29.62017856751325</v>
+        <v>29.62017856751324</v>
       </c>
       <c r="G21" t="n">
-        <v>16.98875195769423</v>
+        <v>16.98875195769425</v>
       </c>
       <c r="H21" t="n">
-        <v>12.58995147852782</v>
+        <v>12.58995147852781</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2170,25 +2170,25 @@
         <v>7.679109791327647</v>
       </c>
       <c r="P21" t="n">
-        <v>41.827589626273</v>
+        <v>41.82758962627298</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03716918551924609</v>
+        <v>0.03716918551924674</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7718883795128073</v>
+        <v>0.7718883795127941</v>
       </c>
       <c r="S21" t="n">
-        <v>0.2155814211596085</v>
+        <v>0.2155814211596129</v>
       </c>
       <c r="T21" t="n">
-        <v>1.141638896056883</v>
+        <v>1.141638896056909</v>
       </c>
       <c r="U21" t="n">
-        <v>0.2412095380613745</v>
+        <v>0.2412095380613746</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1158476855475357</v>
+        <v>0.1158476855475319</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001976600000006101</v>
+        <v>0.001477600000001189</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2219,16 +2219,16 @@
         <v>13.77256473491301</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06391264081180295</v>
+        <v>0.06391264081181566</v>
       </c>
       <c r="F22" t="n">
-        <v>29.02705072811755</v>
+        <v>29.02705072811753</v>
       </c>
       <c r="G22" t="n">
         <v>106.7551114505016</v>
       </c>
       <c r="H22" t="n">
-        <v>13.12801029527922</v>
+        <v>13.12801029527921</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>36.67783432381136</v>
       </c>
       <c r="P22" t="n">
-        <v>27.26808872713793</v>
+        <v>27.26808872713789</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.03627070736918536</v>
+        <v>0.03627070736918171</v>
       </c>
       <c r="R22" t="n">
-        <v>0.7343899507864712</v>
+        <v>0.7343899507862536</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4836863881127789</v>
+        <v>0.4836863881126356</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1575442505720267</v>
+        <v>0.157544250572028</v>
       </c>
       <c r="U22" t="n">
-        <v>0.2355384196324421</v>
+        <v>0.2355384196324422</v>
       </c>
       <c r="V22" t="n">
-        <v>0.2285418558047195</v>
+        <v>0.2285418558047259</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.00456820000000846</v>
+        <v>0.003070300000004522</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2307,10 +2307,10 @@
         <v>31.05530212773155</v>
       </c>
       <c r="G23" t="n">
-        <v>9.312866718892648</v>
+        <v>9.312866718892661</v>
       </c>
       <c r="H23" t="n">
-        <v>7.762504648943776</v>
+        <v>7.762504648943755</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2334,25 +2334,25 @@
         <v>4.014107320403237</v>
       </c>
       <c r="P23" t="n">
-        <v>37.72368775337934</v>
+        <v>37.72368775337933</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0336232715463566</v>
+        <v>0.03362327154635631</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9677143486056451</v>
+        <v>0.9677143486056529</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1329490533931396</v>
+        <v>0.1329490533931372</v>
       </c>
       <c r="T23" t="n">
-        <v>1.569578264226865</v>
+        <v>1.569578264226853</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2532428903770729</v>
+        <v>0.253242890377073</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6791533375537667</v>
+        <v>0.6791533375537578</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002001000000007025</v>
+        <v>0.001588699999999221</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2389,10 +2389,10 @@
         <v>30.93511322282706</v>
       </c>
       <c r="G24" t="n">
-        <v>40.8874091194727</v>
+        <v>40.88740911947267</v>
       </c>
       <c r="H24" t="n">
-        <v>8.241918394201372</v>
+        <v>8.241918394201377</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>12.06134176593905</v>
       </c>
       <c r="P24" t="n">
-        <v>36.60384250210971</v>
+        <v>36.60384250210972</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03872591010884338</v>
+        <v>0.03872591010884405</v>
       </c>
       <c r="R24" t="n">
-        <v>0.7070996212497049</v>
+        <v>0.7070996212497214</v>
       </c>
       <c r="S24" t="n">
-        <v>0.2669131376748367</v>
+        <v>0.2669131376748452</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7574799691510561</v>
+        <v>0.7574799691510758</v>
       </c>
       <c r="U24" t="n">
-        <v>0.2757894632572773</v>
+        <v>0.2757894632572775</v>
       </c>
       <c r="V24" t="n">
-        <v>0.2592032403094022</v>
+        <v>0.2592032403094003</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001912200000006692</v>
+        <v>0.001545200000002467</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2468,13 +2468,13 @@
         <v>359.9674471948283</v>
       </c>
       <c r="F25" t="n">
-        <v>29.71618782241653</v>
+        <v>29.7161878224165</v>
       </c>
       <c r="G25" t="n">
-        <v>92.91383654948028</v>
+        <v>92.91383654948034</v>
       </c>
       <c r="H25" t="n">
-        <v>14.28101817518793</v>
+        <v>14.28101817518792</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2498,25 +2498,25 @@
         <v>34.85775702460861</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96382215923368</v>
+        <v>31.96382215923364</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.03867771970189861</v>
+        <v>0.03867771970189255</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8088690320505368</v>
+        <v>0.8088690320502174</v>
       </c>
       <c r="S25" t="n">
-        <v>0.562880292483416</v>
+        <v>0.5628802924831864</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1943927406793164</v>
+        <v>0.194392740679303</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2290495610991705</v>
+        <v>0.2290495610991704</v>
       </c>
       <c r="V25" t="n">
-        <v>0.04648288026978295</v>
+        <v>0.04648288026978584</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003002499999993802</v>
+        <v>0.002402400000001137</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2550,7 +2550,7 @@
         <v>359.9212471044964</v>
       </c>
       <c r="F26" t="n">
-        <v>29.61067547215858</v>
+        <v>29.61067547215859</v>
       </c>
       <c r="G26" t="n">
         <v>171.6775670137225</v>
@@ -2580,25 +2580,25 @@
         <v>11.77633435323948</v>
       </c>
       <c r="P26" t="n">
-        <v>14.62319604792088</v>
+        <v>14.62319604792089</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02980932106654651</v>
+        <v>0.02980932106654534</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3518941684011737</v>
+        <v>0.3518941684011757</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1140665217779754</v>
+        <v>0.1140665217779732</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4101334383845869</v>
+        <v>0.410133438384565</v>
       </c>
       <c r="U26" t="n">
         <v>0.2431060939399921</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2476339282098811</v>
+        <v>0.2476339282098821</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002248000000008687</v>
+        <v>0.001976499999997827</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2632,13 +2632,13 @@
         <v>0.01235504825636635</v>
       </c>
       <c r="F27" t="n">
-        <v>30.67525186136937</v>
+        <v>30.67525186136938</v>
       </c>
       <c r="G27" t="n">
         <v>156.3352448036388</v>
       </c>
       <c r="H27" t="n">
-        <v>10.23483628177717</v>
+        <v>10.23483628177718</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2662,25 +2662,25 @@
         <v>19.96538887316983</v>
       </c>
       <c r="P27" t="n">
-        <v>17.88475676505596</v>
+        <v>17.88475676505597</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.03461728316919015</v>
+        <v>0.03461728316918979</v>
       </c>
       <c r="R27" t="n">
-        <v>0.5039196475226383</v>
+        <v>0.5039196475226456</v>
       </c>
       <c r="S27" t="n">
-        <v>0.2016119779943136</v>
+        <v>0.2016119779943139</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2607561518518654</v>
+        <v>0.260756151851863</v>
       </c>
       <c r="U27" t="n">
-        <v>0.2671355034229519</v>
+        <v>0.2671355034229517</v>
       </c>
       <c r="V27" t="n">
-        <v>0.1333195717515209</v>
+        <v>0.1333195717515228</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003781200000005924</v>
+        <v>0.001854499999993209</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2714,13 +2714,13 @@
         <v>0.03432680083553174</v>
       </c>
       <c r="F28" t="n">
-        <v>30.10680497508483</v>
+        <v>30.10680497508484</v>
       </c>
       <c r="G28" t="n">
-        <v>57.17510035061649</v>
+        <v>57.17510035061647</v>
       </c>
       <c r="H28" t="n">
-        <v>8.952011803143295</v>
+        <v>8.952011803143304</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2747,22 +2747,22 @@
         <v>34.84475519801195</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03826589016503553</v>
+        <v>0.03826589016503719</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6937366687724792</v>
+        <v>0.6937366687725222</v>
       </c>
       <c r="S28" t="n">
-        <v>0.3271565295840583</v>
+        <v>0.3271565295840902</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5413880727216636</v>
+        <v>0.5413880727216996</v>
       </c>
       <c r="U28" t="n">
-        <v>0.240038647974072</v>
+        <v>0.2400386479740722</v>
       </c>
       <c r="V28" t="n">
-        <v>0.1492692995579905</v>
+        <v>0.1492692995579877</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002539900000002149</v>
+        <v>0.002076000000002409</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,10 +2796,10 @@
         <v>359.8924161760499</v>
       </c>
       <c r="F29" t="n">
-        <v>30.17457872803061</v>
+        <v>30.17457872803062</v>
       </c>
       <c r="G29" t="n">
-        <v>75.69454534594875</v>
+        <v>75.69454534594874</v>
       </c>
       <c r="H29" t="n">
         <v>13.1394532779679</v>
@@ -2823,28 +2823,28 @@
         <v>34.86118304053818</v>
       </c>
       <c r="O29" t="n">
-        <v>27.52613841928756</v>
+        <v>27.52613841928755</v>
       </c>
       <c r="P29" t="n">
-        <v>35.46925212320138</v>
+        <v>35.46925212320141</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0401402732178926</v>
+        <v>0.04014027321789464</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8038172068877908</v>
+        <v>0.8038172068879195</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5125623203664631</v>
+        <v>0.5125623203665418</v>
       </c>
       <c r="T29" t="n">
-        <v>0.3360922164186487</v>
+        <v>0.3360922164186706</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2587856338693698</v>
+        <v>0.25878563386937</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1359317418999144</v>
+        <v>0.1359317418999172</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002793699999998012</v>
+        <v>0.002051200000003917</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9892718178629</v>
       </c>
       <c r="F30" t="n">
-        <v>29.98053982036905</v>
+        <v>29.98053982036906</v>
       </c>
       <c r="G30" t="n">
         <v>130.7179522151698</v>
       </c>
       <c r="H30" t="n">
-        <v>9.715144996350562</v>
+        <v>9.715144996350565</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2911,22 +2911,22 @@
         <v>22.14591768323089</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0360428033621896</v>
+        <v>0.03604280336218984</v>
       </c>
       <c r="R30" t="n">
-        <v>0.6127140980576378</v>
+        <v>0.6127140980576534</v>
       </c>
       <c r="S30" t="n">
-        <v>0.3009592499763571</v>
+        <v>0.300959249976363</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2041659791640186</v>
+        <v>0.2041659791640194</v>
       </c>
       <c r="U30" t="n">
         <v>0.239597411699409</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02797009036310478</v>
+        <v>0.02797009036310387</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005214000000009378</v>
+        <v>0.001924500000001217</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2993,19 +2993,19 @@
         <v>21.79896378495027</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.03356924296622428</v>
+        <v>0.03356924296622501</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4736271032919339</v>
+        <v>0.4736271032919374</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1613350987634407</v>
+        <v>0.1613350987634481</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5017121772938147</v>
+        <v>0.5017121772938262</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2514231639507267</v>
+        <v>0.2514231639507265</v>
       </c>
       <c r="V31" t="n">
         <v>0.3256493771780339</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002235900000002289</v>
+        <v>0.002436299999999392</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3042,13 +3042,13 @@
         <v>0.04745636207639439</v>
       </c>
       <c r="F32" t="n">
-        <v>29.31206062442649</v>
+        <v>29.31206062442648</v>
       </c>
       <c r="G32" t="n">
         <v>116.8197813852813</v>
       </c>
       <c r="H32" t="n">
-        <v>7.321015723743953</v>
+        <v>7.32101572374395</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>21.67561539059987</v>
       </c>
       <c r="P32" t="n">
-        <v>24.46160709194751</v>
+        <v>24.46160709194749</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.03517784172468755</v>
+        <v>0.03517784172469129</v>
       </c>
       <c r="R32" t="n">
-        <v>0.5690639215456827</v>
+        <v>0.5690639215457519</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2705193980048165</v>
+        <v>0.2705193980048673</v>
       </c>
       <c r="T32" t="n">
-        <v>0.290829333736316</v>
+        <v>0.2908293337363384</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2484406931285947</v>
+        <v>0.2484406931285948</v>
       </c>
       <c r="V32" t="n">
-        <v>0.170461790968045</v>
+        <v>0.1704617909680482</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.003800499999996987</v>
+        <v>0.001653200000006905</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3124,10 +3124,10 @@
         <v>0.0864994713067738</v>
       </c>
       <c r="F33" t="n">
-        <v>29.43286316053086</v>
+        <v>29.43286316053087</v>
       </c>
       <c r="G33" t="n">
-        <v>50.94294213119818</v>
+        <v>50.9429421311982</v>
       </c>
       <c r="H33" t="n">
         <v>14.20178512583428</v>
@@ -3154,25 +3154,25 @@
         <v>21.04329196165091</v>
       </c>
       <c r="P33" t="n">
-        <v>40.23812398728807</v>
+        <v>40.23812398728806</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.03900047083019947</v>
+        <v>0.03900047083020022</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7786641302854787</v>
+        <v>0.7786641302855056</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4583075131675697</v>
+        <v>0.4583075131675899</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5516653431122798</v>
+        <v>0.5516653431122989</v>
       </c>
       <c r="U33" t="n">
         <v>0.2563581682470691</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1208838296804762</v>
+        <v>0.1208838296804764</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002828100000002109</v>
+        <v>0.001996300000001838</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3212,7 +3212,7 @@
         <v>152.9552410479202</v>
       </c>
       <c r="H34" t="n">
-        <v>7.155390291195799</v>
+        <v>7.155390291195798</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3239,22 +3239,22 @@
         <v>20.04173880348825</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03315441758711082</v>
+        <v>0.03315441758711046</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4494634073515803</v>
+        <v>0.449463407351582</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1684177007565409</v>
+        <v>0.168417700756542</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3944543633177329</v>
+        <v>0.3944543633177245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.2525876961580377</v>
+        <v>0.2525876961580379</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1654098636663152</v>
+        <v>0.1654098636663155</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002278500000002737</v>
+        <v>0.001886900000002356</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3291,7 +3291,7 @@
         <v>29.75850077332276</v>
       </c>
       <c r="G35" t="n">
-        <v>50.17972701627017</v>
+        <v>50.17972701627016</v>
       </c>
       <c r="H35" t="n">
         <v>7.097551335405861</v>
@@ -3321,22 +3321,22 @@
         <v>33.51406188827396</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.03680432412028814</v>
+        <v>0.03680432412028838</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6359865357575951</v>
+        <v>0.6359865357575697</v>
       </c>
       <c r="S35" t="n">
-        <v>0.256579464141345</v>
+        <v>0.2565794641413356</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6372103800529137</v>
+        <v>0.6372103800529167</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2400014339891192</v>
+        <v>0.2400014339891191</v>
       </c>
       <c r="V35" t="n">
-        <v>0.621423757198957</v>
+        <v>0.6214237571989573</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001948699999999803</v>
+        <v>0.001510700000004306</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3370,7 +3370,7 @@
         <v>359.978349052662</v>
       </c>
       <c r="F36" t="n">
-        <v>30.44199186490055</v>
+        <v>30.44199186490054</v>
       </c>
       <c r="G36" t="n">
         <v>7.546210317070198</v>
@@ -3400,25 +3400,25 @@
         <v>4.110729794064222</v>
       </c>
       <c r="P36" t="n">
-        <v>41.80773471611007</v>
+        <v>41.80773471611006</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0347545563095855</v>
+        <v>0.03475455630958599</v>
       </c>
       <c r="R36" t="n">
-        <v>1.013632484732533</v>
+        <v>1.013632484732539</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1474020442880269</v>
+        <v>0.1474020442880282</v>
       </c>
       <c r="T36" t="n">
-        <v>1.668598607132258</v>
+        <v>1.668598607132291</v>
       </c>
       <c r="U36" t="n">
         <v>0.2388352616442408</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1936905223948665</v>
+        <v>0.1936905223948653</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001973000000006664</v>
+        <v>0.001357800000000964</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3449,16 +3449,16 @@
         <v>6.70019528357894</v>
       </c>
       <c r="E37" t="n">
-        <v>359.9659412182607</v>
+        <v>359.9659412182606</v>
       </c>
       <c r="F37" t="n">
-        <v>30.21812029550377</v>
+        <v>30.21812029550378</v>
       </c>
       <c r="G37" t="n">
-        <v>83.58294994207526</v>
+        <v>83.58294994207523</v>
       </c>
       <c r="H37" t="n">
-        <v>6.781535735182068</v>
+        <v>6.781535735182072</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3479,28 +3479,28 @@
         <v>29.87298333979204</v>
       </c>
       <c r="O37" t="n">
-        <v>17.95540678806478</v>
+        <v>17.95540678806477</v>
       </c>
       <c r="P37" t="n">
-        <v>29.97095920974989</v>
+        <v>29.97095920974991</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.03746016578172481</v>
+        <v>0.03746016578172372</v>
       </c>
       <c r="R37" t="n">
-        <v>0.6381622675995841</v>
+        <v>0.6381622675995453</v>
       </c>
       <c r="S37" t="n">
-        <v>0.2913944241901419</v>
+        <v>0.2913944241901188</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4368364505174685</v>
+        <v>0.4368364505174571</v>
       </c>
       <c r="U37" t="n">
-        <v>0.2609275071011957</v>
+        <v>0.2609275071011955</v>
       </c>
       <c r="V37" t="n">
-        <v>0.09848620363705923</v>
+        <v>0.09848620363706137</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002170899999995868</v>
+        <v>0.001564399999999466</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3534,13 +3534,13 @@
         <v>0.0470760314554694</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49525480206576</v>
+        <v>29.49525480206575</v>
       </c>
       <c r="G38" t="n">
         <v>132.155367790581</v>
       </c>
       <c r="H38" t="n">
-        <v>10.03661785720821</v>
+        <v>10.0366178572082</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3561,28 +3561,28 @@
         <v>21.94213719690333</v>
       </c>
       <c r="O38" t="n">
-        <v>28.30654208690474</v>
+        <v>28.30654208690475</v>
       </c>
       <c r="P38" t="n">
         <v>21.3484506779921</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.035127407435707</v>
+        <v>0.03512740743570391</v>
       </c>
       <c r="R38" t="n">
-        <v>0.5988159147748098</v>
+        <v>0.5988159147746714</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2998848712595777</v>
+        <v>0.2998848712595066</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1876356282471539</v>
+        <v>0.1876356282471575</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2764782334661407</v>
+        <v>0.2764782334661409</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1172337380324683</v>
+        <v>0.1172337380324698</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.00519090000000233</v>
+        <v>0.00180170000000146</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3622,7 +3622,7 @@
         <v>167.3762848431867</v>
       </c>
       <c r="H39" t="n">
-        <v>7.886865010865789</v>
+        <v>7.886865010865792</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3643,28 +3643,28 @@
         <v>17.50763382333646</v>
       </c>
       <c r="O39" t="n">
-        <v>9.831641322271471</v>
+        <v>9.831641322271459</v>
       </c>
       <c r="P39" t="n">
-        <v>18.7094473822154</v>
+        <v>18.70944738221539</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.03120859259785498</v>
+        <v>0.03120859259785443</v>
       </c>
       <c r="R39" t="n">
-        <v>0.426644172370509</v>
+        <v>0.4266441723705085</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1232546435013162</v>
+        <v>0.1232546435013133</v>
       </c>
       <c r="T39" t="n">
-        <v>0.5497918971247349</v>
+        <v>0.5497918971247235</v>
       </c>
       <c r="U39" t="n">
-        <v>0.2412692878661082</v>
+        <v>0.2412692878661084</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4084125977093648</v>
+        <v>0.4084125977093562</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002178099999994743</v>
+        <v>0.001539999999998543</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3728,25 +3728,25 @@
         <v>26.0357954134195</v>
       </c>
       <c r="P40" t="n">
-        <v>37.40272521763505</v>
+        <v>37.40272521763506</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.04073385381167349</v>
+        <v>0.04073385381167492</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8240033900557815</v>
+        <v>0.8240033900559003</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5210216395053676</v>
+        <v>0.5210216395054392</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3932493402899599</v>
+        <v>0.3932493402899813</v>
       </c>
       <c r="U40" t="n">
-        <v>0.2656943119507841</v>
+        <v>0.2656943119507842</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1057772268387091</v>
+        <v>0.1057772268387098</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.005054100000009498</v>
+        <v>0.00190680000000043</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3780,7 +3780,7 @@
         <v>0.002185511807150787</v>
       </c>
       <c r="F41" t="n">
-        <v>29.37648453065676</v>
+        <v>29.37648453065675</v>
       </c>
       <c r="G41" t="n">
         <v>98.27765795555737</v>
@@ -3810,25 +3810,25 @@
         <v>32.56130040495097</v>
       </c>
       <c r="P41" t="n">
-        <v>29.23686373420301</v>
+        <v>29.236863734203</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.03736522292776476</v>
+        <v>0.03736522292776954</v>
       </c>
       <c r="R41" t="n">
-        <v>0.7357368302208773</v>
+        <v>0.735736830220981</v>
       </c>
       <c r="S41" t="n">
-        <v>0.470234437542412</v>
+        <v>0.4702344375424979</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1955996815538508</v>
+        <v>0.1955996815538638</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2611125460665567</v>
+        <v>0.2611125460665565</v>
       </c>
       <c r="V41" t="n">
-        <v>0.1113871705051037</v>
+        <v>0.1113871705051043</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002720300000007114</v>
+        <v>0.002662399999998399</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3862,13 +3862,13 @@
         <v>359.9794428312836</v>
       </c>
       <c r="F42" t="n">
-        <v>30.26238235490025</v>
+        <v>30.26238235490026</v>
       </c>
       <c r="G42" t="n">
-        <v>64.00021591398192</v>
+        <v>64.0002159139819</v>
       </c>
       <c r="H42" t="n">
-        <v>4.102743546025199</v>
+        <v>4.1027435460252</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>30.32293277163192</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.03576319285357854</v>
+        <v>0.03576319285357912</v>
       </c>
       <c r="R42" t="n">
-        <v>0.5936759549379131</v>
+        <v>0.5936759549379036</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1973204731256901</v>
+        <v>0.1973204731256923</v>
       </c>
       <c r="T42" t="n">
-        <v>0.7051409746493995</v>
+        <v>0.7051409746494155</v>
       </c>
       <c r="U42" t="n">
-        <v>0.242220874213517</v>
+        <v>0.2422208742135167</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6095548793871421</v>
+        <v>0.6095548793871444</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.004191099999999892</v>
+        <v>0.001607499999998652</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3947,10 +3947,10 @@
         <v>29.95237703575865</v>
       </c>
       <c r="G43" t="n">
-        <v>66.52619950511119</v>
+        <v>66.52619950511128</v>
       </c>
       <c r="H43" t="n">
-        <v>2.429391785536946</v>
+        <v>2.429391785536944</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3980,19 +3980,19 @@
         <v>0.03386451357889003</v>
       </c>
       <c r="R43" t="n">
-        <v>0.5929477870129931</v>
+        <v>0.5929477870129808</v>
       </c>
       <c r="S43" t="n">
-        <v>0.1509388407250275</v>
+        <v>0.1509388407250285</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8577075377909585</v>
+        <v>0.8577075377909549</v>
       </c>
       <c r="U43" t="n">
         <v>0.2505466065460535</v>
       </c>
       <c r="V43" t="n">
-        <v>1.440828366393398</v>
+        <v>1.440828366393402</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002166599999995356</v>
+        <v>0.001626999999999157</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,13 +4026,13 @@
         <v>0.1053224649881197</v>
       </c>
       <c r="F44" t="n">
-        <v>29.8818489422857</v>
+        <v>29.88184894228571</v>
       </c>
       <c r="G44" t="n">
-        <v>69.13554983212978</v>
+        <v>69.13554983212977</v>
       </c>
       <c r="H44" t="n">
-        <v>13.8413667718662</v>
+        <v>13.84136677186621</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4056,25 +4056,25 @@
         <v>26.77919385840842</v>
       </c>
       <c r="P44" t="n">
-        <v>37.16731002941243</v>
+        <v>37.16731002941245</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.03892313522670991</v>
+        <v>0.03892313522671076</v>
       </c>
       <c r="R44" t="n">
-        <v>0.807930402144444</v>
+        <v>0.8079304021444446</v>
       </c>
       <c r="S44" t="n">
-        <v>0.5239755373436833</v>
+        <v>0.5239755373436893</v>
       </c>
       <c r="T44" t="n">
-        <v>0.3821198045819548</v>
+        <v>0.382119804581967</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2343717861031397</v>
+        <v>0.2343717861031396</v>
       </c>
       <c r="V44" t="n">
-        <v>0.1940083818994836</v>
+        <v>0.1940083818994802</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.00267019999999718</v>
+        <v>0.001895199999999875</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4108,10 +4108,10 @@
         <v>359.9611325691209</v>
       </c>
       <c r="F45" t="n">
-        <v>29.40189067495504</v>
+        <v>29.40189067495505</v>
       </c>
       <c r="G45" t="n">
-        <v>19.39651113367986</v>
+        <v>19.39651113367987</v>
       </c>
       <c r="H45" t="n">
         <v>11.0123464907934</v>
@@ -4138,25 +4138,25 @@
         <v>8.032818134969618</v>
       </c>
       <c r="P45" t="n">
-        <v>39.63923500387804</v>
+        <v>39.63923500387805</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0364517716076608</v>
+        <v>0.03645177160766041</v>
       </c>
       <c r="R45" t="n">
-        <v>0.7266019848667552</v>
+        <v>0.7266019848667515</v>
       </c>
       <c r="S45" t="n">
-        <v>0.2090873452878396</v>
+        <v>0.2090873452878327</v>
       </c>
       <c r="T45" t="n">
-        <v>1.05067721509962</v>
+        <v>1.050677215099601</v>
       </c>
       <c r="U45" t="n">
-        <v>0.2444417674834698</v>
+        <v>0.24444176748347</v>
       </c>
       <c r="V45" t="n">
-        <v>0.2329705650197668</v>
+        <v>0.2329705650197656</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002004499999998188</v>
+        <v>0.001514999999997713</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4190,13 +4190,13 @@
         <v>0.01642273163557409</v>
       </c>
       <c r="F46" t="n">
-        <v>31.14002006611588</v>
+        <v>31.14002006611589</v>
       </c>
       <c r="G46" t="n">
-        <v>149.2676142603946</v>
+        <v>149.2676142603945</v>
       </c>
       <c r="H46" t="n">
-        <v>4.435507158892037</v>
+        <v>4.435507158892036</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4223,22 +4223,22 @@
         <v>24.2639153540076</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.03398532747796031</v>
+        <v>0.03398532747795898</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5287343973687592</v>
+        <v>0.5287343973687503</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1496023864265131</v>
+        <v>0.1496023864265034</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6885264681280803</v>
+        <v>0.6885264681280469</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2494010833343789</v>
+        <v>0.2494010833343788</v>
       </c>
       <c r="V46" t="n">
-        <v>0.2223852255574155</v>
+        <v>0.2223852255574167</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002235599999991678</v>
+        <v>0.001596900000002677</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4305,22 +4305,22 @@
         <v>15.05380312235273</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.02650162346027832</v>
+        <v>0.0265016234602778</v>
       </c>
       <c r="R47" t="n">
-        <v>0.4789358977096345</v>
+        <v>0.4789358977096175</v>
       </c>
       <c r="S47" t="n">
-        <v>0.07255371869030426</v>
+        <v>0.07255371869030303</v>
       </c>
       <c r="T47" t="n">
-        <v>0.7032608647050845</v>
+        <v>0.7032608647050608</v>
       </c>
       <c r="U47" t="n">
-        <v>0.2355881889607893</v>
+        <v>0.2355881889607895</v>
       </c>
       <c r="V47" t="n">
-        <v>0.359180485647679</v>
+        <v>0.3591804856476785</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001958299999998303</v>
+        <v>0.001349599999997508</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4381,25 +4381,25 @@
         <v>19.73114991147893</v>
       </c>
       <c r="O48" t="n">
-        <v>27.74018699119001</v>
+        <v>27.74018699119</v>
       </c>
       <c r="P48" t="n">
         <v>19.57610336236106</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.03532596729192698</v>
+        <v>0.03532596729192717</v>
       </c>
       <c r="R48" t="n">
-        <v>0.5909643772568999</v>
+        <v>0.5909643772568612</v>
       </c>
       <c r="S48" t="n">
-        <v>0.2774890122333795</v>
+        <v>0.277489012233367</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1876937815509112</v>
+        <v>0.1876937815509107</v>
       </c>
       <c r="U48" t="n">
-        <v>0.2576216796254401</v>
+        <v>0.2576216796254399</v>
       </c>
       <c r="V48" t="n">
         <v>0.05780950803714872</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002414899999990894</v>
+        <v>0.001929499999995699</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4436,13 +4436,13 @@
         <v>0.01580452042110706</v>
       </c>
       <c r="F49" t="n">
-        <v>30.38279480400167</v>
+        <v>30.38279480400166</v>
       </c>
       <c r="G49" t="n">
         <v>20.85723467032184</v>
       </c>
       <c r="H49" t="n">
-        <v>14.3583978019649</v>
+        <v>14.35839780196489</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4469,22 +4469,22 @@
         <v>44.47288883376712</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.03942130931967214</v>
+        <v>0.0394213093196718</v>
       </c>
       <c r="R49" t="n">
-        <v>0.8057144115439518</v>
+        <v>0.8057144115439537</v>
       </c>
       <c r="S49" t="n">
-        <v>0.2724584479785671</v>
+        <v>0.2724584479785638</v>
       </c>
       <c r="T49" t="n">
-        <v>1.07441284275941</v>
+        <v>1.074412842759403</v>
       </c>
       <c r="U49" t="n">
-        <v>0.2489496580765463</v>
+        <v>0.2489496580765461</v>
       </c>
       <c r="V49" t="n">
-        <v>0.07081043244209136</v>
+        <v>0.07081043244209193</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.003688900000000217</v>
+        <v>0.001440300000005834</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4551,22 +4551,22 @@
         <v>43.59941699415945</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.03153001864034023</v>
+        <v>0.03153001864034039</v>
       </c>
       <c r="R50" t="n">
-        <v>1.267781116969771</v>
+        <v>1.267781116969765</v>
       </c>
       <c r="S50" t="n">
-        <v>0.1182307503205937</v>
+        <v>0.1182307503205951</v>
       </c>
       <c r="T50" t="n">
-        <v>2.075120433466623</v>
+        <v>2.075120433466636</v>
       </c>
       <c r="U50" t="n">
-        <v>0.2546932346456431</v>
+        <v>0.254693234645643</v>
       </c>
       <c r="V50" t="n">
-        <v>0.1509469989819794</v>
+        <v>0.1509469989819801</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001972999999992453</v>
+        <v>0.001388099999999781</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>29.31377676715374</v>
       </c>
       <c r="G51" t="n">
-        <v>52.02736565224976</v>
+        <v>52.02736565224978</v>
       </c>
       <c r="H51" t="n">
-        <v>5.991628312204721</v>
+        <v>5.991628312204715</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4630,25 +4630,25 @@
         <v>12.37783096627357</v>
       </c>
       <c r="P51" t="n">
-        <v>31.86190484195128</v>
+        <v>31.86190484195127</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.03582556389107209</v>
+        <v>0.03582556389107232</v>
       </c>
       <c r="R51" t="n">
-        <v>0.5954461629807269</v>
+        <v>0.5954461629807108</v>
       </c>
       <c r="S51" t="n">
-        <v>0.2267916799765582</v>
+        <v>0.2267916799765538</v>
       </c>
       <c r="T51" t="n">
-        <v>0.6406564617230392</v>
+        <v>0.6406564617230452</v>
       </c>
       <c r="U51" t="n">
-        <v>0.2275287473189709</v>
+        <v>0.227528747318971</v>
       </c>
       <c r="V51" t="n">
-        <v>0.1086766655447194</v>
+        <v>0.1086766655447168</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002184200000002079</v>
+        <v>0.001591699999998752</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4682,13 +4682,13 @@
         <v>359.9885563916012</v>
       </c>
       <c r="F52" t="n">
-        <v>29.93462410664486</v>
+        <v>29.93462410664485</v>
       </c>
       <c r="G52" t="n">
-        <v>86.74291721513934</v>
+        <v>86.7429172151393</v>
       </c>
       <c r="H52" t="n">
-        <v>5.818877443689575</v>
+        <v>5.818877443689578</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4709,28 +4709,28 @@
         <v>28.65547033479784</v>
       </c>
       <c r="O52" t="n">
-        <v>16.35981822995189</v>
+        <v>16.35981822995191</v>
       </c>
       <c r="P52" t="n">
         <v>28.88447067071446</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.03651740975193168</v>
+        <v>0.03651740975193048</v>
       </c>
       <c r="R52" t="n">
-        <v>0.5990630529574638</v>
+        <v>0.5990630529574367</v>
       </c>
       <c r="S52" t="n">
-        <v>0.258394080558396</v>
+        <v>0.2583940805583784</v>
       </c>
       <c r="T52" t="n">
-        <v>0.4625094704883665</v>
+        <v>0.4625094704883486</v>
       </c>
       <c r="U52" t="n">
-        <v>0.2450964405710991</v>
+        <v>0.2450964405710992</v>
       </c>
       <c r="V52" t="n">
-        <v>0.115243007934015</v>
+        <v>0.1152430079340239</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002012800000002812</v>
+        <v>0.001521199999999112</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4794,25 +4794,25 @@
         <v>10.67288599538128</v>
       </c>
       <c r="P53" t="n">
-        <v>26.08986208854559</v>
+        <v>26.08986208854558</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.03360374640903843</v>
+        <v>0.03360374640903868</v>
       </c>
       <c r="R53" t="n">
-        <v>0.5144692592453588</v>
+        <v>0.5144692592453651</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1683714012840934</v>
+        <v>0.1683714012840958</v>
       </c>
       <c r="T53" t="n">
-        <v>0.6215899623968016</v>
+        <v>0.6215899623968125</v>
       </c>
       <c r="U53" t="n">
         <v>0.2433007833682855</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6224297721465119</v>
+        <v>0.6224297721465106</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002164600000000405</v>
+        <v>0.001599699999999871</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4849,10 +4849,10 @@
         <v>30.69559870543862</v>
       </c>
       <c r="G54" t="n">
-        <v>131.3478876477804</v>
+        <v>131.3478876477803</v>
       </c>
       <c r="H54" t="n">
-        <v>2.72265495278512</v>
+        <v>2.722654952785117</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4876,25 +4876,25 @@
         <v>7.845468287985805</v>
       </c>
       <c r="P54" t="n">
-        <v>26.16570964678193</v>
+        <v>26.16570964678194</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.03323382799727996</v>
+        <v>0.03323382799728005</v>
       </c>
       <c r="R54" t="n">
-        <v>0.5646970567911279</v>
+        <v>0.564697056791133</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1416442321246148</v>
+        <v>0.1416442321246143</v>
       </c>
       <c r="T54" t="n">
-        <v>0.8004671459327127</v>
+        <v>0.8004671459327157</v>
       </c>
       <c r="U54" t="n">
         <v>0.2307954623239686</v>
       </c>
       <c r="V54" t="n">
-        <v>1.022667103411107</v>
+        <v>1.022667103411112</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002234099999995465</v>
+        <v>0.001553499999999985</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4928,13 +4928,13 @@
         <v>359.9518228953304</v>
       </c>
       <c r="F55" t="n">
-        <v>29.96825211410433</v>
+        <v>29.96825211410432</v>
       </c>
       <c r="G55" t="n">
         <v>151.4925084712509</v>
       </c>
       <c r="H55" t="n">
-        <v>9.623817759484647</v>
+        <v>9.623817759484641</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4955,28 +4955,28 @@
         <v>18.25980426170813</v>
       </c>
       <c r="O55" t="n">
-        <v>21.1545001877908</v>
+        <v>21.15450018779079</v>
       </c>
       <c r="P55" t="n">
-        <v>18.44661347370111</v>
+        <v>18.4466134737011</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.03444392763894717</v>
+        <v>0.03444392763894736</v>
       </c>
       <c r="R55" t="n">
-        <v>0.5038444591572007</v>
+        <v>0.5038444591572092</v>
       </c>
       <c r="S55" t="n">
-        <v>0.211461924620478</v>
+        <v>0.2114619246204773</v>
       </c>
       <c r="T55" t="n">
-        <v>0.2445994151085167</v>
+        <v>0.244599415108522</v>
       </c>
       <c r="U55" t="n">
-        <v>0.2804542365460898</v>
+        <v>0.2804542365460899</v>
       </c>
       <c r="V55" t="n">
-        <v>0.07425399594295053</v>
+        <v>0.07425399594295126</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002426299999996218</v>
+        <v>0.002211000000002628</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5010,13 +5010,13 @@
         <v>0.09757633393090333</v>
       </c>
       <c r="F56" t="n">
-        <v>29.2035578553769</v>
+        <v>29.20355785537691</v>
       </c>
       <c r="G56" t="n">
-        <v>79.24391363567901</v>
+        <v>79.24391363567899</v>
       </c>
       <c r="H56" t="n">
-        <v>6.790920071944908</v>
+        <v>6.79092007194491</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>18.17180432810169</v>
       </c>
       <c r="P56" t="n">
-        <v>29.58346361832787</v>
+        <v>29.58346361832788</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.03590665727181955</v>
+        <v>0.03590665727182089</v>
       </c>
       <c r="R56" t="n">
-        <v>0.602144767394713</v>
+        <v>0.6021447673947347</v>
       </c>
       <c r="S56" t="n">
-        <v>0.2824002392872966</v>
+        <v>0.2824002392873161</v>
       </c>
       <c r="T56" t="n">
-        <v>0.4270236671807413</v>
+        <v>0.4270236671807626</v>
       </c>
       <c r="U56" t="n">
         <v>0.2459561511846239</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3737454778778022</v>
+        <v>0.3737454778778</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002961999999996578</v>
+        <v>0.001615399999998601</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5098,7 +5098,7 @@
         <v>16.71361485169745</v>
       </c>
       <c r="H57" t="n">
-        <v>15.41159317123652</v>
+        <v>15.41159317123651</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5122,25 +5122,25 @@
         <v>8.106811792439592</v>
       </c>
       <c r="P57" t="n">
-        <v>45.8340457869612</v>
+        <v>45.83404578696119</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.03904336756266651</v>
+        <v>0.03904336756266572</v>
       </c>
       <c r="R57" t="n">
-        <v>0.8374961374291968</v>
+        <v>0.837496137429213</v>
       </c>
       <c r="S57" t="n">
-        <v>0.2512906722904317</v>
+        <v>0.2512906722904324</v>
       </c>
       <c r="T57" t="n">
-        <v>1.20906690732444</v>
+        <v>1.20906690732441</v>
       </c>
       <c r="U57" t="n">
-        <v>0.2442498908138567</v>
+        <v>0.2442498908138568</v>
       </c>
       <c r="V57" t="n">
-        <v>0.1909397913934905</v>
+        <v>0.1909397913934888</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001901500000002443</v>
+        <v>0.00151830000000075</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5180,7 +5180,7 @@
         <v>176.2543760178848</v>
       </c>
       <c r="H58" t="n">
-        <v>6.657275002913631</v>
+        <v>6.657275002913632</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5207,22 +5207,22 @@
         <v>19.6221029517954</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.02747551247394131</v>
+        <v>0.02747551247394088</v>
       </c>
       <c r="R58" t="n">
-        <v>0.5807146451271162</v>
+        <v>0.5807146451271163</v>
       </c>
       <c r="S58" t="n">
-        <v>0.08188072986290373</v>
+        <v>0.08188072986290224</v>
       </c>
       <c r="T58" t="n">
-        <v>0.8752925054927284</v>
+        <v>0.875292505492717</v>
       </c>
       <c r="U58" t="n">
-        <v>0.2398972666063566</v>
+        <v>0.2398972666063567</v>
       </c>
       <c r="V58" t="n">
-        <v>0.2201072795095792</v>
+        <v>0.2201072795095786</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001948799999993867</v>
+        <v>0.001513700000003837</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5259,10 +5259,10 @@
         <v>28.87362262898978</v>
       </c>
       <c r="G59" t="n">
-        <v>12.33196699254543</v>
+        <v>12.33196699254542</v>
       </c>
       <c r="H59" t="n">
-        <v>7.870699197138657</v>
+        <v>7.870699197138666</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5289,22 +5289,22 @@
         <v>35.62509614799102</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.03249424596664551</v>
+        <v>0.03249424596664583</v>
       </c>
       <c r="R59" t="n">
-        <v>0.7798563095528021</v>
+        <v>0.779856309552811</v>
       </c>
       <c r="S59" t="n">
-        <v>0.1382790824776792</v>
+        <v>0.1382790824776787</v>
       </c>
       <c r="T59" t="n">
-        <v>1.257228090353723</v>
+        <v>1.257228090353746</v>
       </c>
       <c r="U59" t="n">
         <v>0.2726971266002506</v>
       </c>
       <c r="V59" t="n">
-        <v>1.071402066970482</v>
+        <v>1.071402066970486</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.00195310000000859</v>
+        <v>0.001477000000001283</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5344,7 +5344,7 @@
         <v>62.56034526363241</v>
       </c>
       <c r="H60" t="n">
-        <v>8.339997615376952</v>
+        <v>8.339997615376948</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5371,22 +5371,22 @@
         <v>32.34717167897082</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.03649445647125973</v>
+        <v>0.03649445647126164</v>
       </c>
       <c r="R60" t="n">
-        <v>0.6247715061012878</v>
+        <v>0.6247715061013813</v>
       </c>
       <c r="S60" t="n">
-        <v>0.3068939232055948</v>
+        <v>0.3068939232056477</v>
       </c>
       <c r="T60" t="n">
-        <v>0.4685494981501371</v>
+        <v>0.4685494981501745</v>
       </c>
       <c r="U60" t="n">
         <v>0.2355270134478441</v>
       </c>
       <c r="V60" t="n">
-        <v>0.1757036762513054</v>
+        <v>0.1757036762513064</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002432800000008228</v>
+        <v>0.001827199999993923</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5426,7 +5426,7 @@
         <v>168.848016480848</v>
       </c>
       <c r="H61" t="n">
-        <v>5.288158415276402</v>
+        <v>5.2881584152764</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5453,22 +5453,22 @@
         <v>20.98676632165123</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.02968218138382334</v>
+        <v>0.02968218138382348</v>
       </c>
       <c r="R61" t="n">
-        <v>0.5124837862868195</v>
+        <v>0.5124837862868193</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1027557429368574</v>
+        <v>0.1027557429368582</v>
       </c>
       <c r="T61" t="n">
-        <v>0.7706890127099862</v>
+        <v>0.7706890127099915</v>
       </c>
       <c r="U61" t="n">
-        <v>0.2511417436397836</v>
+        <v>0.2511417436397837</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3552001470966829</v>
+        <v>0.3552001470966817</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002223199999988879</v>
+        <v>0.001705999999998653</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5505,10 +5505,10 @@
         <v>31.00209951620247</v>
       </c>
       <c r="G62" t="n">
-        <v>52.79359500452765</v>
+        <v>52.79359500452767</v>
       </c>
       <c r="H62" t="n">
-        <v>5.769324672000273</v>
+        <v>5.76932467200027</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5532,25 +5532,25 @@
         <v>11.54380138493496</v>
       </c>
       <c r="P62" t="n">
-        <v>33.24456237641632</v>
+        <v>33.24456237641631</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.03777674180227752</v>
+        <v>0.0377767418022767</v>
       </c>
       <c r="R62" t="n">
-        <v>0.6573443640953294</v>
+        <v>0.657344364095325</v>
       </c>
       <c r="S62" t="n">
-        <v>0.2341015426707639</v>
+        <v>0.2341015426707563</v>
       </c>
       <c r="T62" t="n">
-        <v>0.7163492679264508</v>
+        <v>0.7163492679264341</v>
       </c>
       <c r="U62" t="n">
         <v>0.2676785214889016</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3994392291489066</v>
+        <v>0.3994392291489045</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002167600000007042</v>
+        <v>0.001688699999995436</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5590,7 +5590,7 @@
         <v>147.477884911301</v>
       </c>
       <c r="H63" t="n">
-        <v>5.232284048302597</v>
+        <v>5.232284048302599</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5617,22 +5617,22 @@
         <v>23.0356239120398</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.03388080235214011</v>
+        <v>0.03388080235213971</v>
       </c>
       <c r="R63" t="n">
-        <v>0.4931165755164025</v>
+        <v>0.4931165755164003</v>
       </c>
       <c r="S63" t="n">
-        <v>0.1626030276037151</v>
+        <v>0.1626030276037139</v>
       </c>
       <c r="T63" t="n">
-        <v>0.5528066936783561</v>
+        <v>0.5528066936783483</v>
       </c>
       <c r="U63" t="n">
         <v>0.2578753207921379</v>
       </c>
       <c r="V63" t="n">
-        <v>0.11148816286916</v>
+        <v>0.1114881628691603</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002509099999997488</v>
+        <v>0.001590400000004877</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5669,10 +5669,10 @@
         <v>31.346131761068</v>
       </c>
       <c r="G64" t="n">
-        <v>7.017046269978618</v>
+        <v>7.017046269978605</v>
       </c>
       <c r="H64" t="n">
-        <v>7.60011366878386</v>
+        <v>7.600113668783867</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5699,22 +5699,22 @@
         <v>37.85182490674203</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.03382429853671179</v>
+        <v>0.03382429853671209</v>
       </c>
       <c r="R64" t="n">
         <v>1.067277962333807</v>
       </c>
       <c r="S64" t="n">
-        <v>0.1245809932137378</v>
+        <v>0.1245809932137386</v>
       </c>
       <c r="T64" t="n">
-        <v>1.724633985902769</v>
+        <v>1.724633985902791</v>
       </c>
       <c r="U64" t="n">
-        <v>0.2235057742229367</v>
+        <v>0.2235057742229368</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3965678445582617</v>
+        <v>0.3965678445582589</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001897299999995994</v>
+        <v>0.001441800000002047</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5775,28 +5775,28 @@
         <v>27.80920715278775</v>
       </c>
       <c r="O65" t="n">
-        <v>21.83038543776395</v>
+        <v>21.83038543776394</v>
       </c>
       <c r="P65" t="n">
-        <v>27.9708751200194</v>
+        <v>27.97087512001941</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.03747866815966695</v>
+        <v>0.03747866815966756</v>
       </c>
       <c r="R65" t="n">
-        <v>0.6522688055642353</v>
+        <v>0.6522688055643091</v>
       </c>
       <c r="S65" t="n">
-        <v>0.3199707213359213</v>
+        <v>0.3199707213359511</v>
       </c>
       <c r="T65" t="n">
         <v>0.3270430749452442</v>
       </c>
       <c r="U65" t="n">
-        <v>0.239913200606146</v>
+        <v>0.2399132006061455</v>
       </c>
       <c r="V65" t="n">
-        <v>0.06019839289620026</v>
+        <v>0.06019839289619998</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.003918899999987957</v>
+        <v>0.00253500000000173</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>0.1371436934711125</v>
       </c>
       <c r="F66" t="n">
-        <v>30.06869620559402</v>
+        <v>30.06869620559401</v>
       </c>
       <c r="G66" t="n">
-        <v>70.05447005138197</v>
+        <v>70.05447005138195</v>
       </c>
       <c r="H66" t="n">
-        <v>9.490570163573945</v>
+        <v>9.490570163573938</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5860,25 +5860,25 @@
         <v>20.87041434304737</v>
       </c>
       <c r="P66" t="n">
-        <v>33.53768720252503</v>
+        <v>33.53768720252502</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.03790108022146538</v>
+        <v>0.03790108022146817</v>
       </c>
       <c r="R66" t="n">
-        <v>0.7096939228763387</v>
+        <v>0.7096939228763937</v>
       </c>
       <c r="S66" t="n">
-        <v>0.3712250088281536</v>
+        <v>0.3712250088282</v>
       </c>
       <c r="T66" t="n">
-        <v>0.4289045901472281</v>
+        <v>0.4289045901472694</v>
       </c>
       <c r="U66" t="n">
-        <v>0.2699219660063206</v>
+        <v>0.2699219660063203</v>
       </c>
       <c r="V66" t="n">
-        <v>0.1492653588068959</v>
+        <v>0.1492653588068973</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002440999999990368</v>
+        <v>0.00187569999999937</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5912,13 +5912,13 @@
         <v>0.07171430097901103</v>
       </c>
       <c r="F67" t="n">
-        <v>29.84689444272746</v>
+        <v>29.84689444272747</v>
       </c>
       <c r="G67" t="n">
-        <v>38.35820321364701</v>
+        <v>38.35820321364708</v>
       </c>
       <c r="H67" t="n">
-        <v>3.344282912300531</v>
+        <v>3.344282912300526</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5945,22 +5945,22 @@
         <v>30.60169062910301</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.03374231052742894</v>
+        <v>0.03374231052742863</v>
       </c>
       <c r="R67" t="n">
-        <v>0.6396487736025566</v>
+        <v>0.6396487736025575</v>
       </c>
       <c r="S67" t="n">
-        <v>0.1478596155430927</v>
+        <v>0.1478596155430908</v>
       </c>
       <c r="T67" t="n">
-        <v>0.9634389407419938</v>
+        <v>0.9634389407419836</v>
       </c>
       <c r="U67" t="n">
         <v>0.2480401036169354</v>
       </c>
       <c r="V67" t="n">
-        <v>0.06832226187075548</v>
+        <v>0.06832226187075698</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001948499999997466</v>
+        <v>0.001429899999997986</v>
       </c>
       <c r="Y67" t="n">
         <v>7</v>
@@ -5994,13 +5994,13 @@
         <v>359.9548818437145</v>
       </c>
       <c r="F68" t="n">
-        <v>29.46122061406134</v>
+        <v>29.46122061406133</v>
       </c>
       <c r="G68" t="n">
-        <v>29.39014986590086</v>
+        <v>29.39014986590083</v>
       </c>
       <c r="H68" t="n">
-        <v>4.149870656164726</v>
+        <v>4.149870656164729</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6027,22 +6027,22 @@
         <v>31.38987569268408</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.03302231311868883</v>
+        <v>0.03302231311868814</v>
       </c>
       <c r="R68" t="n">
-        <v>0.6519122051968121</v>
+        <v>0.651912205196811</v>
       </c>
       <c r="S68" t="n">
-        <v>0.1449063355151922</v>
+        <v>0.1449063355151889</v>
       </c>
       <c r="T68" t="n">
-        <v>0.9967409175702793</v>
+        <v>0.9967409175702567</v>
       </c>
       <c r="U68" t="n">
-        <v>0.2453133387916438</v>
+        <v>0.2453133387916437</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3560953722688993</v>
+        <v>0.3560953722688973</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.0022526000000056</v>
+        <v>0.001577600000004509</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6109,22 +6109,22 @@
         <v>29.01521613333226</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.03622962825006777</v>
+        <v>0.03622962825006727</v>
       </c>
       <c r="R69" t="n">
-        <v>0.7326785064525853</v>
+        <v>0.732678506452454</v>
       </c>
       <c r="S69" t="n">
-        <v>0.4809480314809056</v>
+        <v>0.4809480314808287</v>
       </c>
       <c r="T69" t="n">
-        <v>0.1822744414071833</v>
+        <v>0.1822744414071872</v>
       </c>
       <c r="U69" t="n">
-        <v>0.2436496991403244</v>
+        <v>0.2436496991403246</v>
       </c>
       <c r="V69" t="n">
-        <v>0.2439801569406291</v>
+        <v>0.2439801569406294</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002724299999997015</v>
+        <v>0.002084299999999928</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6158,13 +6158,13 @@
         <v>359.9583448784138</v>
       </c>
       <c r="F70" t="n">
-        <v>29.72063064544565</v>
+        <v>29.72063064544566</v>
       </c>
       <c r="G70" t="n">
-        <v>49.21559227528076</v>
+        <v>49.21559227528078</v>
       </c>
       <c r="H70" t="n">
-        <v>3.301629107720671</v>
+        <v>3.301629107720669</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6191,22 +6191,22 @@
         <v>29.98070533874206</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.03378533961080343</v>
+        <v>0.03378533961080363</v>
       </c>
       <c r="R70" t="n">
-        <v>0.5986712666896989</v>
+        <v>0.5986712666897016</v>
       </c>
       <c r="S70" t="n">
-        <v>0.1579843836821777</v>
+        <v>0.1579843836821778</v>
       </c>
       <c r="T70" t="n">
-        <v>0.855110478847586</v>
+        <v>0.8551104788475966</v>
       </c>
       <c r="U70" t="n">
-        <v>0.2515138384229333</v>
+        <v>0.2515138384229334</v>
       </c>
       <c r="V70" t="n">
-        <v>0.2571526483641774</v>
+        <v>0.2571526483641791</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002313299999997298</v>
+        <v>0.001634500000001538</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>0.0786648029309452</v>
       </c>
       <c r="F71" t="n">
-        <v>28.42534372899723</v>
+        <v>28.42534372899724</v>
       </c>
       <c r="G71" t="n">
-        <v>53.10803372461098</v>
+        <v>53.10803372461097</v>
       </c>
       <c r="H71" t="n">
-        <v>11.79364156575125</v>
+        <v>11.79364156575126</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="N71" t="n">
         <v>38.87559435981993</v>
@@ -6270,25 +6270,25 @@
         <v>20.06221648456068</v>
       </c>
       <c r="P71" t="n">
-        <v>36.52079379918742</v>
+        <v>36.52079379918745</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.03704182551112525</v>
+        <v>0.03704182551112496</v>
       </c>
       <c r="R71" t="n">
-        <v>0.6848428942124846</v>
+        <v>0.684842894212477</v>
       </c>
       <c r="S71" t="n">
-        <v>0.3820982251415013</v>
+        <v>0.3820982251414964</v>
       </c>
       <c r="T71" t="n">
-        <v>0.4994979804530492</v>
+        <v>0.4994979804530463</v>
       </c>
       <c r="U71" t="n">
-        <v>0.2614097774938434</v>
+        <v>0.2614097774938431</v>
       </c>
       <c r="V71" t="n">
-        <v>0.312318388531146</v>
+        <v>0.3123183885311427</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002419500000002017</v>
+        <v>0.001830099999999391</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6322,10 +6322,10 @@
         <v>0.05885536536345636</v>
       </c>
       <c r="F72" t="n">
-        <v>29.55957701925435</v>
+        <v>29.55957701925436</v>
       </c>
       <c r="G72" t="n">
-        <v>167.5007659685078</v>
+        <v>167.5007659685077</v>
       </c>
       <c r="H72" t="n">
         <v>13.33016984574491</v>
@@ -6355,22 +6355,22 @@
         <v>12.24838614276782</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.03194346824087998</v>
+        <v>0.03194346824087862</v>
       </c>
       <c r="R72" t="n">
-        <v>0.4221562215808699</v>
+        <v>0.4221562215808773</v>
       </c>
       <c r="S72" t="n">
-        <v>0.1636630509280192</v>
+        <v>0.1636630509280147</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1893805644634746</v>
+        <v>0.1893805644634721</v>
       </c>
       <c r="U72" t="n">
         <v>0.2523591068409923</v>
       </c>
       <c r="V72" t="n">
-        <v>0.1170081641641027</v>
+        <v>0.1170081641641005</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.00437100000000612</v>
+        <v>0.001979599999998527</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6404,13 +6404,13 @@
         <v>0.03468443218460458</v>
       </c>
       <c r="F73" t="n">
-        <v>30.35308211708101</v>
+        <v>30.353082117081</v>
       </c>
       <c r="G73" t="n">
         <v>36.77223922185843</v>
       </c>
       <c r="H73" t="n">
-        <v>6.815583236863888</v>
+        <v>6.815583236863886</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6437,22 +6437,22 @@
         <v>34.82376752927244</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.03699791292674959</v>
+        <v>0.03699791292674889</v>
       </c>
       <c r="R73" t="n">
-        <v>0.6622845031783452</v>
+        <v>0.6622845031783589</v>
       </c>
       <c r="S73" t="n">
-        <v>0.2184325419446171</v>
+        <v>0.218432541944614</v>
       </c>
       <c r="T73" t="n">
-        <v>0.8244371307356334</v>
+        <v>0.8244371307356142</v>
       </c>
       <c r="U73" t="n">
-        <v>0.2447209759047045</v>
+        <v>0.2447209759047046</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3895436623322073</v>
+        <v>0.3895436623322079</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.00216020000000583</v>
+        <v>0.001635299999996676</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6489,10 +6489,10 @@
         <v>29.91271151636522</v>
       </c>
       <c r="G74" t="n">
-        <v>18.50701956463625</v>
+        <v>18.50701956463624</v>
       </c>
       <c r="H74" t="n">
-        <v>12.02671479573006</v>
+        <v>12.02671479573008</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6516,25 +6516,25 @@
         <v>7.95965609089556</v>
       </c>
       <c r="P74" t="n">
-        <v>41.38071133460592</v>
+        <v>41.38071133460595</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.03741243250275798</v>
+        <v>0.037412432502759</v>
       </c>
       <c r="R74" t="n">
-        <v>0.7658061107362594</v>
+        <v>0.7658061107362573</v>
       </c>
       <c r="S74" t="n">
-        <v>0.219904026850255</v>
+        <v>0.2199040268502643</v>
       </c>
       <c r="T74" t="n">
-        <v>1.106906809356896</v>
+        <v>1.106906809356943</v>
       </c>
       <c r="U74" t="n">
-        <v>0.2522324202673853</v>
+        <v>0.2522324202673851</v>
       </c>
       <c r="V74" t="n">
-        <v>0.2390085191819857</v>
+        <v>0.2390085191819911</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002402299999999968</v>
+        <v>0.001379200000002356</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6568,13 +6568,13 @@
         <v>359.9604294967407</v>
       </c>
       <c r="F75" t="n">
-        <v>30.90177746248488</v>
+        <v>30.90177746248489</v>
       </c>
       <c r="G75" t="n">
         <v>114.438497119324</v>
       </c>
       <c r="H75" t="n">
-        <v>9.86950043466285</v>
+        <v>9.869500434662854</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6598,25 +6598,25 @@
         <v>27.03083106653513</v>
       </c>
       <c r="P75" t="n">
-        <v>26.25347510046289</v>
+        <v>26.2534751004629</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.03828707727054855</v>
+        <v>0.038287077270548</v>
       </c>
       <c r="R75" t="n">
-        <v>0.7035647186046025</v>
+        <v>0.7035647186045777</v>
       </c>
       <c r="S75" t="n">
-        <v>0.3666201597105916</v>
+        <v>0.3666201597105755</v>
       </c>
       <c r="T75" t="n">
-        <v>0.2298022076257502</v>
+        <v>0.2298022076257519</v>
       </c>
       <c r="U75" t="n">
-        <v>0.2276560574751332</v>
+        <v>0.2276560574751327</v>
       </c>
       <c r="V75" t="n">
-        <v>0.236803208019833</v>
+        <v>0.2368032080198346</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002733300000002714</v>
+        <v>0.002538300000004767</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6656,7 +6656,7 @@
         <v>36.55179068441733</v>
       </c>
       <c r="H76" t="n">
-        <v>12.236881284446</v>
+        <v>12.23688128444601</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6680,25 +6680,25 @@
         <v>14.24311102738165</v>
       </c>
       <c r="P76" t="n">
-        <v>40.20644994970395</v>
+        <v>40.20644994970396</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.03904058835614044</v>
+        <v>0.03904058835613969</v>
       </c>
       <c r="R76" t="n">
-        <v>0.7358734241271008</v>
+        <v>0.7358734241270775</v>
       </c>
       <c r="S76" t="n">
-        <v>0.3303809031861848</v>
+        <v>0.3303809031861703</v>
       </c>
       <c r="T76" t="n">
-        <v>0.7310378850088286</v>
+        <v>0.7310378850088064</v>
       </c>
       <c r="U76" t="n">
-        <v>0.2276282494711567</v>
+        <v>0.2276282494711564</v>
       </c>
       <c r="V76" t="n">
-        <v>0.06213554650339849</v>
+        <v>0.06213554650339677</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002420399999991218</v>
+        <v>0.001824999999996635</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6732,7 +6732,7 @@
         <v>359.9031777642714</v>
       </c>
       <c r="F77" t="n">
-        <v>30.93061573047944</v>
+        <v>30.93061573047943</v>
       </c>
       <c r="G77" t="n">
         <v>97.27347014217943</v>
@@ -6762,25 +6762,25 @@
         <v>12.13662061988103</v>
       </c>
       <c r="P77" t="n">
-        <v>28.32992474078638</v>
+        <v>28.32992474078637</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.03646923876235457</v>
+        <v>0.03646923876235515</v>
       </c>
       <c r="R77" t="n">
-        <v>0.5856173632891586</v>
+        <v>0.5856173632891571</v>
       </c>
       <c r="S77" t="n">
-        <v>0.2073753849513568</v>
+        <v>0.2073753849513579</v>
       </c>
       <c r="T77" t="n">
-        <v>0.6025115203901126</v>
+        <v>0.60251152039012</v>
       </c>
       <c r="U77" t="n">
-        <v>0.2396054739233037</v>
+        <v>0.2396054739233036</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4240955143017899</v>
+        <v>0.4240955143017895</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.00224410000001285</v>
+        <v>0.001608599999997296</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6814,10 +6814,10 @@
         <v>359.9648358770254</v>
       </c>
       <c r="F78" t="n">
-        <v>29.77724614554529</v>
+        <v>29.7772461455453</v>
       </c>
       <c r="G78" t="n">
-        <v>55.95774068026632</v>
+        <v>55.95774068026634</v>
       </c>
       <c r="H78" t="n">
         <v>12.79382681082713</v>
@@ -6847,22 +6847,22 @@
         <v>38.35261758522521</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.0394748292998874</v>
+        <v>0.03947482929988559</v>
       </c>
       <c r="R78" t="n">
-        <v>0.7677570973723593</v>
+        <v>0.7677570973723598</v>
       </c>
       <c r="S78" t="n">
-        <v>0.4389874332212869</v>
+        <v>0.4389874332212734</v>
       </c>
       <c r="T78" t="n">
-        <v>0.5064542724434186</v>
+        <v>0.5064542724433889</v>
       </c>
       <c r="U78" t="n">
-        <v>0.2383498451037545</v>
+        <v>0.2383498451037544</v>
       </c>
       <c r="V78" t="n">
-        <v>0.03322667680952322</v>
+        <v>0.03322667680952497</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002749899999997751</v>
+        <v>0.001982400000002826</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6896,7 +6896,7 @@
         <v>0.01766024070574774</v>
       </c>
       <c r="F79" t="n">
-        <v>29.92559743292009</v>
+        <v>29.92559743292008</v>
       </c>
       <c r="G79" t="n">
         <v>165.2196795490304</v>
@@ -6929,22 +6929,22 @@
         <v>15.67673104351215</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.03223130890618156</v>
+        <v>0.03223130890618392</v>
       </c>
       <c r="R79" t="n">
-        <v>0.4079493867928467</v>
+        <v>0.4079493867928514</v>
       </c>
       <c r="S79" t="n">
-        <v>0.153428447225339</v>
+        <v>0.1534284472253528</v>
       </c>
       <c r="T79" t="n">
-        <v>0.3055402126467857</v>
+        <v>0.3055402126468039</v>
       </c>
       <c r="U79" t="n">
-        <v>0.2496615420138129</v>
+        <v>0.2496615420138132</v>
       </c>
       <c r="V79" t="n">
-        <v>0.05673691125273264</v>
+        <v>0.05673691125273127</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00246479999999849</v>
+        <v>0.001880400000004556</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -6984,7 +6984,7 @@
         <v>9.872855988490926</v>
       </c>
       <c r="H80" t="n">
-        <v>10.34774135343311</v>
+        <v>10.34774135343313</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -7008,25 +7008,25 @@
         <v>4.604102487489002</v>
       </c>
       <c r="P80" t="n">
-        <v>40.79840661937171</v>
+        <v>40.79840661937173</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.0355356450697379</v>
+        <v>0.03553564506973706</v>
       </c>
       <c r="R80" t="n">
-        <v>0.954546736702033</v>
+        <v>0.9545467367020288</v>
       </c>
       <c r="S80" t="n">
-        <v>0.1554811812325944</v>
+        <v>0.1554811812325919</v>
       </c>
       <c r="T80" t="n">
-        <v>1.553882952990117</v>
+        <v>1.553882952990058</v>
       </c>
       <c r="U80" t="n">
         <v>0.2511089202433164</v>
       </c>
       <c r="V80" t="n">
-        <v>0.2440851435138665</v>
+        <v>0.2440851435138634</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002185800000006566</v>
+        <v>0.001611400000001595</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7063,10 +7063,10 @@
         <v>30.58025032018628</v>
       </c>
       <c r="G81" t="n">
-        <v>85.64699156487617</v>
+        <v>85.64699156487615</v>
       </c>
       <c r="H81" t="n">
-        <v>9.203855417535475</v>
+        <v>9.203855417535477</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7087,28 +7087,28 @@
         <v>29.68449734234962</v>
       </c>
       <c r="O81" t="n">
-        <v>22.7968213349606</v>
+        <v>22.79682133496059</v>
       </c>
       <c r="P81" t="n">
         <v>31.24261800051368</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.03936061385416036</v>
+        <v>0.03936061385416073</v>
       </c>
       <c r="R81" t="n">
-        <v>0.7162700981941306</v>
+        <v>0.7162700981941278</v>
       </c>
       <c r="S81" t="n">
-        <v>0.3767818280356974</v>
+        <v>0.3767818280356977</v>
       </c>
       <c r="T81" t="n">
-        <v>0.3499975317361468</v>
+        <v>0.3499975317361487</v>
       </c>
       <c r="U81" t="n">
         <v>0.2358706705984172</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3743008908206987</v>
+        <v>0.3743008908207081</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003582399999999097</v>
+        <v>0.001810200000001316</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7142,7 +7142,7 @@
         <v>359.982682516175</v>
       </c>
       <c r="F82" t="n">
-        <v>29.80369455246038</v>
+        <v>29.8036945524604</v>
       </c>
       <c r="G82" t="n">
         <v>95.65488901767881</v>
@@ -7172,25 +7172,25 @@
         <v>29.33156555598806</v>
       </c>
       <c r="P82" t="n">
-        <v>29.66662108391762</v>
+        <v>29.66662108391765</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.03791041809701555</v>
+        <v>0.03791041809701728</v>
       </c>
       <c r="R82" t="n">
-        <v>0.728174989272688</v>
+        <v>0.7281749892727877</v>
       </c>
       <c r="S82" t="n">
-        <v>0.437567039646252</v>
+        <v>0.4375670396463117</v>
       </c>
       <c r="T82" t="n">
-        <v>0.2343378057615467</v>
+        <v>0.2343378057615502</v>
       </c>
       <c r="U82" t="n">
-        <v>0.2386887346468592</v>
+        <v>0.2386887346468591</v>
       </c>
       <c r="V82" t="n">
-        <v>0.1410840367981307</v>
+        <v>0.1410840367981272</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002699300000003291</v>
+        <v>0.002083900000002359</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7230,7 +7230,7 @@
         <v>70.37385957543202</v>
       </c>
       <c r="H83" t="n">
-        <v>6.754251099627829</v>
+        <v>6.754251099627828</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7257,22 +7257,22 @@
         <v>32.29014873692714</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.03810463260197885</v>
+        <v>0.03810463260197876</v>
       </c>
       <c r="R83" t="n">
-        <v>0.6743885248512544</v>
+        <v>0.6743885248512539</v>
       </c>
       <c r="S83" t="n">
-        <v>0.2902439987937627</v>
+        <v>0.2902439987937653</v>
       </c>
       <c r="T83" t="n">
         <v>0.5346212325241533</v>
       </c>
       <c r="U83" t="n">
-        <v>0.2529431412223925</v>
+        <v>0.2529431412223924</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3114418082421259</v>
+        <v>0.3114418082421262</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.003868599999989897</v>
+        <v>0.001636099999998919</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7309,7 +7309,7 @@
         <v>30.00630182992857</v>
       </c>
       <c r="G84" t="n">
-        <v>47.44118978235404</v>
+        <v>47.44118978235405</v>
       </c>
       <c r="H84" t="n">
         <v>11.37982108623581</v>
@@ -7339,22 +7339,22 @@
         <v>38.29612916440178</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.03940020130218208</v>
+        <v>0.03940020130218284</v>
       </c>
       <c r="R84" t="n">
-        <v>0.7377897636098508</v>
+        <v>0.7377897636099146</v>
       </c>
       <c r="S84" t="n">
-        <v>0.3631811691673096</v>
+        <v>0.3631811691673404</v>
       </c>
       <c r="T84" t="n">
-        <v>0.6051826659324711</v>
+        <v>0.6051826659324963</v>
       </c>
       <c r="U84" t="n">
-        <v>0.2694455219171671</v>
+        <v>0.2694455219171669</v>
       </c>
       <c r="V84" t="n">
-        <v>0.2664133752439271</v>
+        <v>0.2664133752439252</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002454499999998916</v>
+        <v>0.00185650000000237</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7394,7 +7394,7 @@
         <v>46.12352862234965</v>
       </c>
       <c r="H85" t="n">
-        <v>10.84351959718959</v>
+        <v>10.84351959718958</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7418,25 +7418,25 @@
         <v>16.47611014763578</v>
       </c>
       <c r="P85" t="n">
-        <v>37.19850446158052</v>
+        <v>37.19850446158051</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.0379833301422916</v>
+        <v>0.03798333014229212</v>
       </c>
       <c r="R85" t="n">
-        <v>0.6936909562043159</v>
+        <v>0.6936909562044059</v>
       </c>
       <c r="S85" t="n">
-        <v>0.3364142584067954</v>
+        <v>0.336414258406842</v>
       </c>
       <c r="T85" t="n">
-        <v>0.59845882711118</v>
+        <v>0.5984588271112093</v>
       </c>
       <c r="U85" t="n">
         <v>0.2475041829329387</v>
       </c>
       <c r="V85" t="n">
-        <v>0.1444042458781141</v>
+        <v>0.1444042458781159</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002452800000000366</v>
+        <v>0.002603399999998146</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7476,7 +7476,7 @@
         <v>8.111184651123846</v>
       </c>
       <c r="H86" t="n">
-        <v>7.035966410740613</v>
+        <v>7.035966410740607</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7500,25 +7500,25 @@
         <v>3.812795111879052</v>
       </c>
       <c r="P86" t="n">
-        <v>36.64245127219022</v>
+        <v>36.64245127219021</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.03425380673195816</v>
+        <v>0.03425380673195853</v>
       </c>
       <c r="R86" t="n">
-        <v>0.9974146367291108</v>
+        <v>0.9974146367291075</v>
       </c>
       <c r="S86" t="n">
-        <v>0.1258996817687893</v>
+        <v>0.1258996817687911</v>
       </c>
       <c r="T86" t="n">
-        <v>1.610162509218647</v>
+        <v>1.610162509218671</v>
       </c>
       <c r="U86" t="n">
-        <v>0.2793743974032877</v>
+        <v>0.2793743974032875</v>
       </c>
       <c r="V86" t="n">
-        <v>0.1738374389055491</v>
+        <v>0.1738374389055508</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001953600000007327</v>
+        <v>0.001416999999996449</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>111.1965599086502</v>
       </c>
       <c r="H87" t="n">
-        <v>9.100059450714754</v>
+        <v>9.100059450714751</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7582,25 +7582,25 @@
         <v>25.8469477133038</v>
       </c>
       <c r="P87" t="n">
-        <v>26.07916288502882</v>
+        <v>26.07916288502881</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.03679555032520967</v>
+        <v>0.03679555032520861</v>
       </c>
       <c r="R87" t="n">
-        <v>0.6562123271073748</v>
+        <v>0.6562123271073125</v>
       </c>
       <c r="S87" t="n">
-        <v>0.3416767492491161</v>
+        <v>0.3416767492490843</v>
       </c>
       <c r="T87" t="n">
-        <v>0.2441779354343818</v>
+        <v>0.2441779354343778</v>
       </c>
       <c r="U87" t="n">
-        <v>0.2551855401443855</v>
+        <v>0.2551855401443858</v>
       </c>
       <c r="V87" t="n">
-        <v>0.03019714359736706</v>
+        <v>0.03019714359736781</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002699399999997354</v>
+        <v>0.002072200000000635</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7637,10 +7637,10 @@
         <v>30.02907155073826</v>
       </c>
       <c r="G88" t="n">
-        <v>40.00012713927022</v>
+        <v>40.00012713927021</v>
       </c>
       <c r="H88" t="n">
-        <v>4.977484325246853</v>
+        <v>4.977484325246856</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>32.37694916690786</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.0354130803839475</v>
+        <v>0.03541308038394757</v>
       </c>
       <c r="R88" t="n">
-        <v>0.6262199637998545</v>
+        <v>0.626219963799863</v>
       </c>
       <c r="S88" t="n">
-        <v>0.1846878661056695</v>
+        <v>0.1846878661056666</v>
       </c>
       <c r="T88" t="n">
-        <v>0.8436042201002614</v>
+        <v>0.8436042201002683</v>
       </c>
       <c r="U88" t="n">
         <v>0.2533311071375922</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3659395800861335</v>
+        <v>0.3659395800861319</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002246900000002938</v>
+        <v>0.001760199999999656</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7722,7 +7722,7 @@
         <v>118.4298538263575</v>
       </c>
       <c r="H89" t="n">
-        <v>14.5284949857933</v>
+        <v>14.52849498579329</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7743,28 +7743,28 @@
         <v>25.30051964941712</v>
       </c>
       <c r="O89" t="n">
-        <v>40.64050854224325</v>
+        <v>40.64050854224324</v>
       </c>
       <c r="P89" t="n">
-        <v>25.34181957591719</v>
+        <v>25.34181957591718</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.03761345173018307</v>
+        <v>0.03761345173018897</v>
       </c>
       <c r="R89" t="n">
-        <v>0.7975908323099516</v>
+        <v>0.7975908323103096</v>
       </c>
       <c r="S89" t="n">
-        <v>0.5093080842978177</v>
+        <v>0.5093080842980401</v>
       </c>
       <c r="T89" t="n">
-        <v>0.1809858048248938</v>
+        <v>0.180985804824933</v>
       </c>
       <c r="U89" t="n">
-        <v>0.2523097592179685</v>
+        <v>0.2523097592179681</v>
       </c>
       <c r="V89" t="n">
-        <v>0.02722586610299713</v>
+        <v>0.02722586610299551</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002932900000004679</v>
+        <v>0.002312400000000991</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7798,13 +7798,13 @@
         <v>0.003339774709061123</v>
       </c>
       <c r="F90" t="n">
-        <v>30.98896403030916</v>
+        <v>30.98896403030914</v>
       </c>
       <c r="G90" t="n">
         <v>115.9520641682817</v>
       </c>
       <c r="H90" t="n">
-        <v>9.45473500195039</v>
+        <v>9.454735001950381</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7828,25 +7828,25 @@
         <v>25.91538989251913</v>
       </c>
       <c r="P90" t="n">
-        <v>26.02453109457543</v>
+        <v>26.02453109457541</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.03799141668541779</v>
+        <v>0.03799141668542136</v>
       </c>
       <c r="R90" t="n">
-        <v>0.6923199753985643</v>
+        <v>0.6923199753986938</v>
       </c>
       <c r="S90" t="n">
-        <v>0.3506655439652117</v>
+        <v>0.350665543965284</v>
       </c>
       <c r="T90" t="n">
-        <v>0.2421766542816687</v>
+        <v>0.2421766542816771</v>
       </c>
       <c r="U90" t="n">
-        <v>0.249051323731604</v>
+        <v>0.2490513237316042</v>
       </c>
       <c r="V90" t="n">
-        <v>0.1910168847965588</v>
+        <v>0.1910168847965549</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002720899999999915</v>
+        <v>0.002087500000001796</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7883,10 +7883,10 @@
         <v>30.01000391557845</v>
       </c>
       <c r="G91" t="n">
-        <v>95.91059159768028</v>
+        <v>95.91059159768018</v>
       </c>
       <c r="H91" t="n">
-        <v>5.852422696726117</v>
+        <v>5.852422696726123</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7910,25 +7910,25 @@
         <v>17.12473715219494</v>
       </c>
       <c r="P91" t="n">
-        <v>27.90764282163748</v>
+        <v>27.90764282163749</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.03611109611027854</v>
+        <v>0.03611109611027866</v>
       </c>
       <c r="R91" t="n">
-        <v>0.5941951462197563</v>
+        <v>0.5941951462197337</v>
       </c>
       <c r="S91" t="n">
-        <v>0.2587570013034048</v>
+        <v>0.2587570013033961</v>
       </c>
       <c r="T91" t="n">
-        <v>0.4314103114071461</v>
+        <v>0.4314103114071516</v>
       </c>
       <c r="U91" t="n">
-        <v>0.2598657260834134</v>
+        <v>0.2598657260834135</v>
       </c>
       <c r="V91" t="n">
-        <v>0.2912464365885182</v>
+        <v>0.2912464365885121</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002219999999994116</v>
+        <v>0.001588099999999315</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -7962,13 +7962,13 @@
         <v>359.9507882470141</v>
       </c>
       <c r="F92" t="n">
-        <v>29.04886740439051</v>
+        <v>29.0488674043905</v>
       </c>
       <c r="G92" t="n">
-        <v>23.11874499443324</v>
+        <v>23.11874499443323</v>
       </c>
       <c r="H92" t="n">
-        <v>5.788684773290982</v>
+        <v>5.788684773290988</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7995,22 +7995,22 @@
         <v>33.04878614669592</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.03328259207105406</v>
+        <v>0.03328259207105358</v>
       </c>
       <c r="R92" t="n">
-        <v>0.6604612751820129</v>
+        <v>0.6604612751820215</v>
       </c>
       <c r="S92" t="n">
-        <v>0.1531652042986394</v>
+        <v>0.1531652042986355</v>
       </c>
       <c r="T92" t="n">
-        <v>1.009641107441753</v>
+        <v>1.009641107441742</v>
       </c>
       <c r="U92" t="n">
-        <v>0.2678850360702252</v>
+        <v>0.2678850360702253</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5979667485328418</v>
+        <v>0.5979667485328453</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.003551500000000374</v>
+        <v>0.001758799999997507</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.9178674789609</v>
       </c>
       <c r="F93" t="n">
-        <v>29.33752115337357</v>
+        <v>29.33752115337358</v>
       </c>
       <c r="G93" t="n">
-        <v>35.34389408927806</v>
+        <v>35.34389408927807</v>
       </c>
       <c r="H93" t="n">
-        <v>7.021777671123833</v>
+        <v>7.021777671123835</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>10.13094057894648</v>
       </c>
       <c r="P93" t="n">
-        <v>34.12636721913709</v>
+        <v>34.1263672191371</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.03577649331689139</v>
+        <v>0.03577649331689037</v>
       </c>
       <c r="R93" t="n">
-        <v>0.6258609761937814</v>
+        <v>0.6258609761937629</v>
       </c>
       <c r="S93" t="n">
-        <v>0.2103738463123254</v>
+        <v>0.2103738463123102</v>
       </c>
       <c r="T93" t="n">
-        <v>0.787179780859883</v>
+        <v>0.7871797808598525</v>
       </c>
       <c r="U93" t="n">
-        <v>0.2351195536116942</v>
+        <v>0.2351195536116941</v>
       </c>
       <c r="V93" t="n">
-        <v>0.07394045276445027</v>
+        <v>0.07394045276444985</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002179400000002829</v>
+        <v>0.00168769999999796</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8126,7 +8126,7 @@
         <v>0.1185798866925115</v>
       </c>
       <c r="F94" t="n">
-        <v>29.09365169359665</v>
+        <v>29.09365169359666</v>
       </c>
       <c r="G94" t="n">
         <v>161.7089128422197</v>
@@ -8153,28 +8153,28 @@
         <v>14.83878058168517</v>
       </c>
       <c r="O94" t="n">
-        <v>25.62907557798261</v>
+        <v>25.6290755779826</v>
       </c>
       <c r="P94" t="n">
-        <v>13.66417091955376</v>
+        <v>13.66417091955377</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.03211575257711434</v>
+        <v>0.03211575257711715</v>
       </c>
       <c r="R94" t="n">
-        <v>0.4630622261158446</v>
+        <v>0.4630622261158322</v>
       </c>
       <c r="S94" t="n">
-        <v>0.1912924238220922</v>
+        <v>0.1912924238221054</v>
       </c>
       <c r="T94" t="n">
-        <v>0.1748276048064352</v>
+        <v>0.1748276048064258</v>
       </c>
       <c r="U94" t="n">
-        <v>0.2223853209142958</v>
+        <v>0.2223853209142957</v>
       </c>
       <c r="V94" t="n">
-        <v>0.1959535386900375</v>
+        <v>0.1959535386900301</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.004458099999993692</v>
+        <v>0.001943999999994617</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8208,13 +8208,13 @@
         <v>359.9777608328453</v>
       </c>
       <c r="F95" t="n">
-        <v>29.31561755979573</v>
+        <v>29.31561755979575</v>
       </c>
       <c r="G95" t="n">
         <v>109.0552837265467</v>
       </c>
       <c r="H95" t="n">
-        <v>10.59597715673615</v>
+        <v>10.59597715673616</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -8238,25 +8238,25 @@
         <v>30.30288000609382</v>
       </c>
       <c r="P95" t="n">
-        <v>26.11625878799277</v>
+        <v>26.11625878799278</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.03660185521145871</v>
+        <v>0.0366018552114616</v>
       </c>
       <c r="R95" t="n">
-        <v>0.6715280179378381</v>
+        <v>0.6715280179380403</v>
       </c>
       <c r="S95" t="n">
-        <v>0.3876808296989163</v>
+        <v>0.3876808296990236</v>
       </c>
       <c r="T95" t="n">
-        <v>0.1946155170515858</v>
+        <v>0.1946155170515864</v>
       </c>
       <c r="U95" t="n">
         <v>0.2249456721978799</v>
       </c>
       <c r="V95" t="n">
-        <v>0.1177882548577041</v>
+        <v>0.1177882548577022</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002692199999998479</v>
+        <v>0.002207300000002022</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,7 +8290,7 @@
         <v>0.01750676438519734</v>
       </c>
       <c r="F96" t="n">
-        <v>29.47049137365881</v>
+        <v>29.47049137365882</v>
       </c>
       <c r="G96" t="n">
         <v>129.2472315607204</v>
@@ -8320,25 +8320,25 @@
         <v>28.59926057284792</v>
       </c>
       <c r="P96" t="n">
-        <v>21.92010808318598</v>
+        <v>21.92010808318599</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.03541590249109559</v>
+        <v>0.0354159024910949</v>
       </c>
       <c r="R96" t="n">
-        <v>0.6079408883438476</v>
+        <v>0.6079408883437684</v>
       </c>
       <c r="S96" t="n">
-        <v>0.3100729490024678</v>
+        <v>0.3100729490024336</v>
       </c>
       <c r="T96" t="n">
-        <v>0.1875647122494142</v>
+        <v>0.1875647122494148</v>
       </c>
       <c r="U96" t="n">
-        <v>0.2489993993385747</v>
+        <v>0.2489993993385749</v>
       </c>
       <c r="V96" t="n">
-        <v>0.1232539747018396</v>
+        <v>0.1232539747018394</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.004413900000002968</v>
+        <v>0.00199720000000525</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8378,7 +8378,7 @@
         <v>39.72057701518536</v>
       </c>
       <c r="H97" t="n">
-        <v>5.558324752821187</v>
+        <v>5.558324752821189</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>9.445334661325136</v>
       </c>
       <c r="P97" t="n">
-        <v>33.0216198330964</v>
+        <v>33.02161983309641</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.03589736875294591</v>
+        <v>0.035897368752946</v>
       </c>
       <c r="R97" t="n">
-        <v>0.6313901043773138</v>
+        <v>0.6313901043773249</v>
       </c>
       <c r="S97" t="n">
-        <v>0.196664911067748</v>
+        <v>0.1966649110677496</v>
       </c>
       <c r="T97" t="n">
-        <v>0.8194479951072131</v>
+        <v>0.8194479951072194</v>
       </c>
       <c r="U97" t="n">
         <v>0.2359738281834033</v>
       </c>
       <c r="V97" t="n">
-        <v>0.1861784285875715</v>
+        <v>0.1861784285875731</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002165800000000218</v>
+        <v>0.001614400000001126</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8454,13 +8454,13 @@
         <v>0.1146559325304677</v>
       </c>
       <c r="F98" t="n">
-        <v>29.5529641223689</v>
+        <v>29.55296412236891</v>
       </c>
       <c r="G98" t="n">
         <v>39.99798121199625</v>
       </c>
       <c r="H98" t="n">
-        <v>12.76596021997266</v>
+        <v>12.76596021997267</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8484,25 +8484,25 @@
         <v>15.98235420752264</v>
       </c>
       <c r="P98" t="n">
-        <v>40.22695173882865</v>
+        <v>40.22695173882866</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.03866224184072808</v>
+        <v>0.03866224184072847</v>
       </c>
       <c r="R98" t="n">
-        <v>0.7404570390151095</v>
+        <v>0.7404570390151592</v>
       </c>
       <c r="S98" t="n">
-        <v>0.3610143685478236</v>
+        <v>0.361014368547845</v>
       </c>
       <c r="T98" t="n">
-        <v>0.678393114020247</v>
+        <v>0.6783931140202648</v>
       </c>
       <c r="U98" t="n">
-        <v>0.2418320975454154</v>
+        <v>0.2418320975454153</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3188492683544969</v>
+        <v>0.3188492683544951</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002544100000008598</v>
+        <v>0.00189860000000408</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8536,13 +8536,13 @@
         <v>0.1162744229359049</v>
       </c>
       <c r="F99" t="n">
-        <v>29.287616812913</v>
+        <v>29.28761681291299</v>
       </c>
       <c r="G99" t="n">
-        <v>151.7635490648041</v>
+        <v>151.7635490648042</v>
       </c>
       <c r="H99" t="n">
-        <v>14.28496043356181</v>
+        <v>14.2849604335618</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8566,25 +8566,25 @@
         <v>38.91458710833981</v>
       </c>
       <c r="P99" t="n">
-        <v>14.86870279015103</v>
+        <v>14.86870279015102</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.0336788774790044</v>
+        <v>0.03367887747900798</v>
       </c>
       <c r="R99" t="n">
-        <v>0.6218026486217737</v>
+        <v>0.6218026486218812</v>
       </c>
       <c r="S99" t="n">
-        <v>0.2921809237037128</v>
+        <v>0.2921809237037667</v>
       </c>
       <c r="T99" t="n">
-        <v>0.2215899886762605</v>
+        <v>0.2215899886762865</v>
       </c>
       <c r="U99" t="n">
         <v>0.2452146828544468</v>
       </c>
       <c r="V99" t="n">
-        <v>0.1894813763615034</v>
+        <v>0.189481376361507</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.003026699999992388</v>
+        <v>0.002220199999996453</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8648,25 +8648,25 @@
         <v>26.85865528110327</v>
       </c>
       <c r="P100" t="n">
-        <v>20.2481656811962</v>
+        <v>20.24816568119621</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.03338269816017544</v>
+        <v>0.03338269816017357</v>
       </c>
       <c r="R100" t="n">
-        <v>0.5415282454841265</v>
+        <v>0.5415282454840207</v>
       </c>
       <c r="S100" t="n">
-        <v>0.2657650584917514</v>
+        <v>0.2657650584917032</v>
       </c>
       <c r="T100" t="n">
-        <v>0.1917512813182529</v>
+        <v>0.1917512813182561</v>
       </c>
       <c r="U100" t="n">
-        <v>0.2717820618671227</v>
+        <v>0.2717820618671224</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3553825373435393</v>
+        <v>0.3553825373435391</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002492900000007126</v>
+        <v>0.001446999999998866</v>
       </c>
       <c r="Y100" t="n">
         <v>7</v>
@@ -8706,7 +8706,7 @@
         <v>120.1626839985896</v>
       </c>
       <c r="H101" t="n">
-        <v>9.053735796307741</v>
+        <v>9.053735796307738</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8730,25 +8730,25 @@
         <v>25.17632695501586</v>
       </c>
       <c r="P101" t="n">
-        <v>24.76312431520734</v>
+        <v>24.76312431520733</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.03735973922471457</v>
+        <v>0.03735973922471202</v>
       </c>
       <c r="R101" t="n">
-        <v>0.6489473019570404</v>
+        <v>0.6489473019570139</v>
       </c>
       <c r="S101" t="n">
-        <v>0.3215523572188997</v>
+        <v>0.3215523572188728</v>
       </c>
       <c r="T101" t="n">
-        <v>0.2406114519200762</v>
+        <v>0.2406114519200686</v>
       </c>
       <c r="U101" t="n">
         <v>0.2429924006145925</v>
       </c>
       <c r="V101" t="n">
-        <v>0.125349877976848</v>
+        <v>0.1253498779768466</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002617599999993558</v>
+        <v>0.002428500000000611</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
